--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>662971.4604069053</v>
+        <v>660798.7107973527</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25471072.88939889</v>
+        <v>25471072.88939891</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3596793.108753123</v>
+        <v>3596793.108753124</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>377.9647308011906</v>
       </c>
       <c r="E2" t="n">
-        <v>45.77764296561951</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -828,13 +828,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>91.96212854896432</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>5.64492333244486</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -904,10 +904,10 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>249.6071042668469</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -961,10 +961,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>402.3743020448612</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>74.55853910711924</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1074,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>1.291583304551557</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1141,16 +1141,16 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>272.7832380825997</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>285.8594785580456</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>22.79706811530366</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1341,25 +1341,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>253.2720435481145</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>51.52738494159245</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1378,10 +1378,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>396.2852707095142</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>57.78140969865706</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5421930678769</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1435,10 +1435,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>175.2784960767483</v>
       </c>
     </row>
     <row r="12">
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>149.061035098121</v>
+        <v>149.0610350981208</v>
       </c>
       <c r="T13" t="n">
         <v>241.3151108196531</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1615,16 +1615,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>381.3704990162942</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.9879964839001</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>57.78140969865706</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>213.0575106034447</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.5421930678769</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>38.30577780108641</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>149.0610350981208</v>
+        <v>149.061035098121</v>
       </c>
       <c r="T16" t="n">
         <v>241.3151108196531</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>39.07630906342118</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>396.2852707095142</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>274.9879964839001</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>57.78140969865706</v>
       </c>
       <c r="T17" t="n">
-        <v>213.0575106034447</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>48.6010928337368</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>400.5476028238643</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>37.85331651059775</v>
+        <v>396.2852707095142</v>
       </c>
       <c r="H20" t="n">
-        <v>274.9879964839001</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>57.78140969865706</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>213.0575106034447</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.5421930678769</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2560,7 +2560,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>51.62795236724713</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -2572,7 +2572,7 @@
         <v>396.2852707095142</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>89.67696906126783</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>213.0575106034447</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.5421930678769</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2803,13 +2803,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>396.2852707095142</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.9879964839001</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>57.78140969865706</v>
       </c>
       <c r="T29" t="n">
         <v>213.0575106034447</v>
@@ -2851,13 +2851,13 @@
         <v>256.5421930678769</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>69.88739506778474</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>35.02830417642941</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>126.1166242516177</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3037,10 +3037,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>140.333611895561</v>
       </c>
       <c r="G32" t="n">
         <v>396.2852707095142</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>57.78140969865706</v>
       </c>
       <c r="T32" t="n">
         <v>213.0575106034447</v>
@@ -3088,7 +3088,7 @@
         <v>256.5421930678769</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>187.3888595357145</v>
       </c>
       <c r="G35" t="n">
-        <v>172.8246591672069</v>
+        <v>396.2852707095142</v>
       </c>
       <c r="H35" t="n">
-        <v>274.9879964839001</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>57.78140969865706</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>213.0575106034447</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.410183055204</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>396.2852707095142</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>205.7887657917466</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>213.0575106034447</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317975</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3754,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>151.5949844302255</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.9879964839001</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>391.8523974301364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3988,10 +3988,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>55.33386649611593</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>57.78140969865706</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>138.7304069727089</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.5421930678769</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>503.806449467169</v>
       </c>
       <c r="C2" t="n">
-        <v>822.1393557439876</v>
+        <v>469.7043806909963</v>
       </c>
       <c r="D2" t="n">
-        <v>393.5576814812559</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E2" t="n">
-        <v>347.3176380816403</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4339,16 +4339,16 @@
         <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1353.494203032709</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>934.3517396120193</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>526.0656159116727</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>723.6923648297959</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>551.1306533130208</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>385.2526605145435</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>215.4946567652808</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>215.4946567652808</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
         <v>122.603617826933</v>
@@ -4488,19 +4488,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>68.8461756808652</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>343.6046302520008</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1537.942061378414</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V4" t="n">
-        <v>1537.942061378414</v>
+        <v>1142.930654234675</v>
       </c>
       <c r="W4" t="n">
-        <v>1537.942061378414</v>
+        <v>1142.930654234675</v>
       </c>
       <c r="X4" t="n">
-        <v>1532.240118618369</v>
+        <v>1142.930654234675</v>
       </c>
       <c r="Y4" t="n">
-        <v>1304.820447932477</v>
+        <v>915.5109835487831</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>956.3642220164563</v>
+        <v>153.8932738874814</v>
       </c>
       <c r="C5" t="n">
-        <v>922.2621532402836</v>
+        <v>119.7912051113087</v>
       </c>
       <c r="D5" t="n">
-        <v>890.3927724551322</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O5" t="n">
-        <v>1277.130531135514</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P5" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R5" t="n">
         <v>1697.183430080417</v>
@@ -4600,19 +4600,19 @@
         <v>1613.531556264254</v>
       </c>
       <c r="U5" t="n">
-        <v>1361.403168115924</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V5" t="n">
-        <v>998.7862180497506</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W5" t="n">
-        <v>997.9711675011879</v>
+        <v>990.8772529665349</v>
       </c>
       <c r="X5" t="n">
-        <v>982.8691081209026</v>
+        <v>584.4385640323317</v>
       </c>
       <c r="Y5" t="n">
-        <v>978.6233884609601</v>
+        <v>176.1524403319851</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,34 +4634,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>859.7685167902448</v>
+        <v>673.1667265237504</v>
       </c>
       <c r="C7" t="n">
-        <v>687.2068052734697</v>
+        <v>673.1667265237504</v>
       </c>
       <c r="D7" t="n">
-        <v>687.2068052734697</v>
+        <v>673.1667265237504</v>
       </c>
       <c r="E7" t="n">
-        <v>517.4488015242071</v>
+        <v>503.4087227744877</v>
       </c>
       <c r="F7" t="n">
-        <v>340.7417474859633</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G7" t="n">
-        <v>175.150472511791</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H7" t="n">
-        <v>35.24829820216547</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>726.9120049407049</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="N7" t="n">
-        <v>1146.964903885608</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O7" t="n">
-        <v>1566.63415311139</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V7" t="n">
-        <v>1131.794921203953</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W7" t="n">
-        <v>859.7685167902448</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="X7" t="n">
-        <v>859.7685167902448</v>
+        <v>864.9853452427376</v>
       </c>
       <c r="Y7" t="n">
-        <v>859.7685167902448</v>
+        <v>864.9853452427376</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>846.6806259663152</v>
+        <v>804.4522061243824</v>
       </c>
       <c r="C8" t="n">
-        <v>812.5785571901426</v>
+        <v>770.3501373482097</v>
       </c>
       <c r="D8" t="n">
-        <v>780.7091764049912</v>
+        <v>738.4807565630583</v>
       </c>
       <c r="E8" t="n">
-        <v>750.9748356036905</v>
+        <v>309.8990823003267</v>
       </c>
       <c r="F8" t="n">
-        <v>323.1074060128983</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G8" t="n">
-        <v>323.1074060128983</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
         <v>34.36045797446834</v>
@@ -4831,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>846.059151609114</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>830.9570922288287</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.980196451223</v>
+        <v>826.7113725688862</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,31 +4871,31 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O9" t="n">
         <v>1159.957753041174</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>800.3931741963595</v>
+        <v>947.1238364150125</v>
       </c>
       <c r="C10" t="n">
-        <v>627.8314626795844</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="D10" t="n">
-        <v>627.8314626795844</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E10" t="n">
         <v>604.8041211489747</v>
@@ -4962,25 +4962,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>91.74450617142992</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>509.954387939391</v>
       </c>
       <c r="M10" t="n">
-        <v>813.4916901053949</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N10" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -4989,25 +4989,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V10" t="n">
-        <v>992.2117929153466</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="W10" t="n">
-        <v>992.2117929153466</v>
+        <v>1419.935261767492</v>
       </c>
       <c r="X10" t="n">
-        <v>992.2117929153466</v>
+        <v>1174.543507100904</v>
       </c>
       <c r="Y10" t="n">
-        <v>992.2117929153466</v>
+        <v>947.1238364150125</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2196.298969052155</v>
+        <v>1334.656794619658</v>
       </c>
       <c r="C11" t="n">
-        <v>1758.156496235579</v>
+        <v>896.5143218030814</v>
       </c>
       <c r="D11" t="n">
-        <v>1322.246711410023</v>
+        <v>460.6045369775259</v>
       </c>
       <c r="E11" t="n">
-        <v>888.4719665683181</v>
+        <v>460.6045369775259</v>
       </c>
       <c r="F11" t="n">
         <v>460.6045369775259</v>
@@ -5044,22 +5044,22 @@
         <v>629.4005381353032</v>
       </c>
       <c r="K11" t="n">
-        <v>1375.815799363257</v>
+        <v>1218.088049546742</v>
       </c>
       <c r="L11" t="n">
-        <v>1547.4466887586</v>
+        <v>1389.718938942085</v>
       </c>
       <c r="M11" t="n">
-        <v>1738.419122942906</v>
+        <v>1580.691373126391</v>
       </c>
       <c r="N11" t="n">
-        <v>1932.481690767848</v>
+        <v>1774.753940951333</v>
       </c>
       <c r="O11" t="n">
-        <v>2115.729470598398</v>
+        <v>1958.001720781883</v>
       </c>
       <c r="P11" t="n">
-        <v>2272.127211096549</v>
+        <v>2114.399461280034</v>
       </c>
       <c r="Q11" t="n">
         <v>2778.346437009021</v>
@@ -5068,25 +5068,25 @@
         <v>3015.819237284662</v>
       </c>
       <c r="S11" t="n">
-        <v>3015.819237284662</v>
+        <v>2957.454176982988</v>
       </c>
       <c r="T11" t="n">
-        <v>3015.819237284662</v>
+        <v>2957.454176982988</v>
       </c>
       <c r="U11" t="n">
-        <v>3015.819237284662</v>
+        <v>2698.320648631597</v>
       </c>
       <c r="V11" t="n">
-        <v>2653.202287218488</v>
+        <v>2335.703698565424</v>
       </c>
       <c r="W11" t="n">
-        <v>2248.346832629521</v>
+        <v>1930.848243976457</v>
       </c>
       <c r="X11" t="n">
-        <v>2248.346832629521</v>
+        <v>1511.705780555767</v>
       </c>
       <c r="Y11" t="n">
-        <v>2248.346832629521</v>
+        <v>1334.656794619658</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>485.951877831851</v>
       </c>
       <c r="K12" t="n">
-        <v>579.9184609329183</v>
+        <v>801.4710574797633</v>
       </c>
       <c r="L12" t="n">
-        <v>706.2681281089057</v>
+        <v>927.8207246557507</v>
       </c>
       <c r="M12" t="n">
-        <v>853.7122301744909</v>
+        <v>1075.264826721336</v>
       </c>
       <c r="N12" t="n">
-        <v>1005.058738888133</v>
+        <v>1226.611335434979</v>
       </c>
       <c r="O12" t="n">
-        <v>1143.511226420621</v>
+        <v>1365.063822967466</v>
       </c>
       <c r="P12" t="n">
         <v>1476.184150399203</v>
@@ -5199,25 +5199,25 @@
         <v>60.31638474569324</v>
       </c>
       <c r="J13" t="n">
-        <v>94.80797090192894</v>
+        <v>181.3876560666188</v>
       </c>
       <c r="K13" t="n">
-        <v>426.2466969243558</v>
+        <v>512.8263820890456</v>
       </c>
       <c r="L13" t="n">
-        <v>916.9878118155107</v>
+        <v>1003.567496980201</v>
       </c>
       <c r="M13" t="n">
-        <v>1452.945694695533</v>
+        <v>1393.77930392336</v>
       </c>
       <c r="N13" t="n">
-        <v>1969.860132386792</v>
+        <v>1910.693741614619</v>
       </c>
       <c r="O13" t="n">
-        <v>2458.485943468964</v>
+        <v>2399.319552696791</v>
       </c>
       <c r="P13" t="n">
-        <v>2864.99708872162</v>
+        <v>2805.830697949447</v>
       </c>
       <c r="Q13" t="n">
         <v>3014.874957973235</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2181.233543099408</v>
+        <v>1212.134295401866</v>
       </c>
       <c r="C14" t="n">
-        <v>1743.091070282831</v>
+        <v>773.9918225852892</v>
       </c>
       <c r="D14" t="n">
-        <v>1307.181285457275</v>
+        <v>338.0820377597337</v>
       </c>
       <c r="E14" t="n">
-        <v>873.4065406155705</v>
+        <v>338.0820377597337</v>
       </c>
       <c r="F14" t="n">
-        <v>445.5391110247783</v>
+        <v>338.0820377597337</v>
       </c>
       <c r="G14" t="n">
-        <v>60.31638474569324</v>
+        <v>338.0820377597337</v>
       </c>
       <c r="H14" t="n">
         <v>60.31638474569324</v>
@@ -5296,7 +5296,7 @@
         <v>1507.660566463248</v>
       </c>
       <c r="P14" t="n">
-        <v>2114.399461280034</v>
+        <v>2254.075827691202</v>
       </c>
       <c r="Q14" t="n">
         <v>2778.346437009021</v>
@@ -5305,25 +5305,25 @@
         <v>3015.819237284662</v>
       </c>
       <c r="S14" t="n">
-        <v>3015.819237284662</v>
+        <v>2957.454176982988</v>
       </c>
       <c r="T14" t="n">
-        <v>3015.819237284662</v>
+        <v>2742.244570312842</v>
       </c>
       <c r="U14" t="n">
-        <v>3015.819237284662</v>
+        <v>2483.111041961451</v>
       </c>
       <c r="V14" t="n">
-        <v>3015.819237284662</v>
+        <v>2444.418337111869</v>
       </c>
       <c r="W14" t="n">
-        <v>3015.819237284662</v>
+        <v>2039.562882522902</v>
       </c>
       <c r="X14" t="n">
-        <v>3015.819237284662</v>
+        <v>1620.420419102213</v>
       </c>
       <c r="Y14" t="n">
-        <v>2607.533113584315</v>
+        <v>1212.134295401866</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>60.31638474569324</v>
       </c>
       <c r="I15" t="n">
-        <v>80.35163143454288</v>
+        <v>106.4153045950005</v>
       </c>
       <c r="J15" t="n">
-        <v>459.8882046713935</v>
+        <v>485.951877831851</v>
       </c>
       <c r="K15" t="n">
-        <v>553.8547877724607</v>
+        <v>579.9184609329183</v>
       </c>
       <c r="L15" t="n">
-        <v>680.2044549484481</v>
+        <v>706.2681281089057</v>
       </c>
       <c r="M15" t="n">
-        <v>827.6485570140334</v>
+        <v>853.7122301744909</v>
       </c>
       <c r="N15" t="n">
-        <v>978.995065727676</v>
+        <v>1226.611335434979</v>
       </c>
       <c r="O15" t="n">
-        <v>1117.447553260163</v>
+        <v>1365.063822967466</v>
       </c>
       <c r="P15" t="n">
-        <v>1228.5678806919</v>
+        <v>1476.184150399203</v>
       </c>
       <c r="Q15" t="n">
-        <v>1667.637924625043</v>
+        <v>1550.465146530704</v>
       </c>
       <c r="R15" t="n">
         <v>1703.767727443815</v>
@@ -5415,13 +5415,13 @@
         <v>1119.482091368267</v>
       </c>
       <c r="C16" t="n">
-        <v>946.9203798514924</v>
+        <v>946.9203798514923</v>
       </c>
       <c r="D16" t="n">
-        <v>781.0423870530151</v>
+        <v>781.0423870530149</v>
       </c>
       <c r="E16" t="n">
-        <v>611.2843833037524</v>
+        <v>611.2843833037523</v>
       </c>
       <c r="F16" t="n">
         <v>434.5773292655086</v>
@@ -5436,25 +5436,25 @@
         <v>60.31638474569324</v>
       </c>
       <c r="J16" t="n">
-        <v>94.80797090192894</v>
+        <v>181.3876560666188</v>
       </c>
       <c r="K16" t="n">
-        <v>426.2466969243558</v>
+        <v>512.8263820890456</v>
       </c>
       <c r="L16" t="n">
-        <v>916.9878118155107</v>
+        <v>1003.567496980201</v>
       </c>
       <c r="M16" t="n">
-        <v>1452.945694695533</v>
+        <v>1393.77930392336</v>
       </c>
       <c r="N16" t="n">
-        <v>1969.860132386792</v>
+        <v>1910.693741614619</v>
       </c>
       <c r="O16" t="n">
-        <v>2458.485943468964</v>
+        <v>2399.319552696791</v>
       </c>
       <c r="P16" t="n">
-        <v>2864.99708872162</v>
+        <v>2805.830697949447</v>
       </c>
       <c r="Q16" t="n">
         <v>3014.874957973235</v>
@@ -5472,7 +5472,7 @@
         <v>2343.094047983012</v>
       </c>
       <c r="V16" t="n">
-        <v>2056.138539853443</v>
+        <v>2056.138539853442</v>
       </c>
       <c r="W16" t="n">
         <v>1784.112135439734</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1205.70863883834</v>
+        <v>2073.776469834363</v>
       </c>
       <c r="C17" t="n">
-        <v>1205.70863883834</v>
+        <v>1635.633997017786</v>
       </c>
       <c r="D17" t="n">
-        <v>1205.70863883834</v>
+        <v>1199.724212192231</v>
       </c>
       <c r="E17" t="n">
-        <v>1166.237619582359</v>
+        <v>765.949467350526</v>
       </c>
       <c r="F17" t="n">
-        <v>738.3701899915663</v>
+        <v>338.0820377597337</v>
       </c>
       <c r="G17" t="n">
         <v>338.0820377597337</v>
@@ -5515,52 +5515,52 @@
         <v>101.837454701092</v>
       </c>
       <c r="J17" t="n">
-        <v>194.1458506823854</v>
+        <v>629.4005381353032</v>
       </c>
       <c r="K17" t="n">
-        <v>332.4922077751902</v>
+        <v>767.7468952281081</v>
       </c>
       <c r="L17" t="n">
-        <v>504.1230971705326</v>
+        <v>939.3777846234506</v>
       </c>
       <c r="M17" t="n">
-        <v>695.095531354839</v>
+        <v>1130.350218807757</v>
       </c>
       <c r="N17" t="n">
-        <v>1441.510792582793</v>
+        <v>1324.412786632698</v>
       </c>
       <c r="O17" t="n">
-        <v>2127.155785534939</v>
+        <v>1507.660566463248</v>
       </c>
       <c r="P17" t="n">
-        <v>2283.55352603309</v>
+        <v>2114.399461280034</v>
       </c>
       <c r="Q17" t="n">
-        <v>2947.500501762078</v>
+        <v>2778.346437009021</v>
       </c>
       <c r="R17" t="n">
         <v>3015.819237284662</v>
       </c>
       <c r="S17" t="n">
-        <v>3015.819237284662</v>
+        <v>2957.454176982988</v>
       </c>
       <c r="T17" t="n">
-        <v>2800.609630614516</v>
+        <v>2957.454176982988</v>
       </c>
       <c r="U17" t="n">
-        <v>2800.609630614516</v>
+        <v>2957.454176982988</v>
       </c>
       <c r="V17" t="n">
-        <v>2437.992680548342</v>
+        <v>2957.454176982988</v>
       </c>
       <c r="W17" t="n">
-        <v>2033.137225959376</v>
+        <v>2957.454176982988</v>
       </c>
       <c r="X17" t="n">
-        <v>1613.994762538686</v>
+        <v>2908.362164019617</v>
       </c>
       <c r="Y17" t="n">
-        <v>1205.70863883834</v>
+        <v>2500.076040319271</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>60.31638474569324</v>
       </c>
       <c r="I18" t="n">
-        <v>80.35163143454288</v>
+        <v>106.4153045950005</v>
       </c>
       <c r="J18" t="n">
-        <v>459.8882046713935</v>
+        <v>485.951877831851</v>
       </c>
       <c r="K18" t="n">
-        <v>553.8547877724607</v>
+        <v>801.4710574797633</v>
       </c>
       <c r="L18" t="n">
-        <v>680.2044549484481</v>
+        <v>927.8207246557507</v>
       </c>
       <c r="M18" t="n">
-        <v>1192.437604815676</v>
+        <v>1075.264826721336</v>
       </c>
       <c r="N18" t="n">
-        <v>1343.784113529318</v>
+        <v>1226.611335434979</v>
       </c>
       <c r="O18" t="n">
-        <v>1482.236601061806</v>
+        <v>1365.063822967466</v>
       </c>
       <c r="P18" t="n">
-        <v>1593.356928493543</v>
+        <v>1476.184150399203</v>
       </c>
       <c r="Q18" t="n">
-        <v>1667.637924625043</v>
+        <v>1550.465146530704</v>
       </c>
       <c r="R18" t="n">
         <v>1703.767727443815</v>
@@ -5652,46 +5652,46 @@
         <v>1119.482091368267</v>
       </c>
       <c r="C19" t="n">
-        <v>946.9203798514924</v>
+        <v>946.9203798514923</v>
       </c>
       <c r="D19" t="n">
-        <v>781.0423870530151</v>
+        <v>781.0423870530149</v>
       </c>
       <c r="E19" t="n">
-        <v>611.2843833037524</v>
+        <v>611.2843833037518</v>
       </c>
       <c r="F19" t="n">
-        <v>434.5773292655086</v>
+        <v>434.5773292655081</v>
       </c>
       <c r="G19" t="n">
-        <v>269.4838181536711</v>
+        <v>269.4838181536703</v>
       </c>
       <c r="H19" t="n">
-        <v>134.0072170928041</v>
+        <v>134.0072170928033</v>
       </c>
       <c r="I19" t="n">
         <v>60.31638474569324</v>
       </c>
       <c r="J19" t="n">
-        <v>94.80797090192894</v>
+        <v>181.3876560666188</v>
       </c>
       <c r="K19" t="n">
-        <v>426.2466969243558</v>
+        <v>512.8263820890456</v>
       </c>
       <c r="L19" t="n">
-        <v>916.9878118155107</v>
+        <v>1003.567496980201</v>
       </c>
       <c r="M19" t="n">
-        <v>1452.945694695533</v>
+        <v>1539.525379860223</v>
       </c>
       <c r="N19" t="n">
-        <v>1969.860132386792</v>
+        <v>2056.439817551482</v>
       </c>
       <c r="O19" t="n">
-        <v>2458.485943468964</v>
+        <v>2545.065628633654</v>
       </c>
       <c r="P19" t="n">
-        <v>2864.99708872162</v>
+        <v>2805.830697949447</v>
       </c>
       <c r="Q19" t="n">
         <v>3014.874957973235</v>
@@ -5706,10 +5706,10 @@
         <v>2621.499897973779</v>
       </c>
       <c r="U19" t="n">
-        <v>2343.094047983012</v>
+        <v>2343.094047983011</v>
       </c>
       <c r="V19" t="n">
-        <v>2056.138539853443</v>
+        <v>2056.138539853442</v>
       </c>
       <c r="W19" t="n">
         <v>1784.112135439734</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2112.012143077391</v>
+        <v>1293.065504774242</v>
       </c>
       <c r="C20" t="n">
-        <v>1673.869670260814</v>
+        <v>1293.065504774242</v>
       </c>
       <c r="D20" t="n">
-        <v>1237.959885435259</v>
+        <v>1293.065504774242</v>
       </c>
       <c r="E20" t="n">
-        <v>804.185140593554</v>
+        <v>888.4719665683181</v>
       </c>
       <c r="F20" t="n">
-        <v>376.3177110027618</v>
+        <v>460.6045369775259</v>
       </c>
       <c r="G20" t="n">
-        <v>338.0820377597337</v>
+        <v>60.31638474569324</v>
       </c>
       <c r="H20" t="n">
         <v>60.31638474569324</v>
@@ -5752,22 +5752,22 @@
         <v>101.837454701092</v>
       </c>
       <c r="J20" t="n">
-        <v>194.1458506823854</v>
+        <v>629.4005381353032</v>
       </c>
       <c r="K20" t="n">
-        <v>940.5611119103392</v>
+        <v>767.7468952281081</v>
       </c>
       <c r="L20" t="n">
-        <v>1112.192001305682</v>
+        <v>939.3777846234506</v>
       </c>
       <c r="M20" t="n">
-        <v>1303.164435489988</v>
+        <v>1130.350218807757</v>
       </c>
       <c r="N20" t="n">
-        <v>1497.22700331493</v>
+        <v>1324.412786632698</v>
       </c>
       <c r="O20" t="n">
-        <v>1680.474783145479</v>
+        <v>1507.660566463248</v>
       </c>
       <c r="P20" t="n">
         <v>2114.399461280034</v>
@@ -5782,22 +5782,22 @@
         <v>2957.454176982988</v>
       </c>
       <c r="T20" t="n">
-        <v>2957.454176982988</v>
+        <v>2742.244570312842</v>
       </c>
       <c r="U20" t="n">
-        <v>2957.454176982988</v>
+        <v>2483.111041961451</v>
       </c>
       <c r="V20" t="n">
-        <v>2957.454176982988</v>
+        <v>2120.494091895278</v>
       </c>
       <c r="W20" t="n">
-        <v>2957.454176982988</v>
+        <v>2120.494091895278</v>
       </c>
       <c r="X20" t="n">
-        <v>2538.311713562299</v>
+        <v>1701.351628474588</v>
       </c>
       <c r="Y20" t="n">
-        <v>2538.311713562299</v>
+        <v>1293.065504774242</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>485.951877831851</v>
       </c>
       <c r="K21" t="n">
-        <v>579.9184609329183</v>
+        <v>801.4710574797633</v>
       </c>
       <c r="L21" t="n">
-        <v>706.2681281089057</v>
+        <v>927.8207246557507</v>
       </c>
       <c r="M21" t="n">
-        <v>853.7122301744909</v>
+        <v>1075.264826721336</v>
       </c>
       <c r="N21" t="n">
-        <v>1005.058738888133</v>
+        <v>1226.611335434979</v>
       </c>
       <c r="O21" t="n">
-        <v>1482.236601061806</v>
+        <v>1365.063822967466</v>
       </c>
       <c r="P21" t="n">
-        <v>1593.356928493543</v>
+        <v>1476.184150399203</v>
       </c>
       <c r="Q21" t="n">
-        <v>1667.637924625043</v>
+        <v>1550.465146530704</v>
       </c>
       <c r="R21" t="n">
         <v>1703.767727443815</v>
@@ -5889,10 +5889,10 @@
         <v>1119.482091368267</v>
       </c>
       <c r="C22" t="n">
-        <v>946.9203798514919</v>
+        <v>946.9203798514923</v>
       </c>
       <c r="D22" t="n">
-        <v>781.0423870530146</v>
+        <v>781.0423870530149</v>
       </c>
       <c r="E22" t="n">
         <v>611.2843833037518</v>
@@ -5910,25 +5910,25 @@
         <v>60.31638474569324</v>
       </c>
       <c r="J22" t="n">
-        <v>94.80797090192894</v>
+        <v>181.3876560666188</v>
       </c>
       <c r="K22" t="n">
-        <v>426.2466969243558</v>
+        <v>512.8263820890456</v>
       </c>
       <c r="L22" t="n">
-        <v>916.9878118155107</v>
+        <v>1003.567496980201</v>
       </c>
       <c r="M22" t="n">
-        <v>1452.945694695533</v>
+        <v>1539.525379860223</v>
       </c>
       <c r="N22" t="n">
-        <v>1969.860132386792</v>
+        <v>2056.439817551482</v>
       </c>
       <c r="O22" t="n">
-        <v>2458.485943468964</v>
+        <v>2545.065628633654</v>
       </c>
       <c r="P22" t="n">
-        <v>2864.99708872162</v>
+        <v>2951.57677388631</v>
       </c>
       <c r="Q22" t="n">
         <v>3014.874957973235</v>
@@ -5949,13 +5949,13 @@
         <v>2056.138539853442</v>
       </c>
       <c r="W22" t="n">
-        <v>1784.112135439733</v>
+        <v>1784.112135439734</v>
       </c>
       <c r="X22" t="n">
         <v>1538.720380773146</v>
       </c>
       <c r="Y22" t="n">
-        <v>1311.300710087254</v>
+        <v>1311.300710087255</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>779.4345602439316</v>
       </c>
       <c r="G23" t="n">
-        <v>379.1464080120976</v>
+        <v>379.1464080120986</v>
       </c>
       <c r="H23" t="n">
         <v>101.3807549980571</v>
@@ -5992,22 +5992,22 @@
         <v>235.2102209347493</v>
       </c>
       <c r="K23" t="n">
-        <v>1207.906869985732</v>
+        <v>373.5565780275541</v>
       </c>
       <c r="L23" t="n">
-        <v>2454.597725633934</v>
+        <v>1620.247433675756</v>
       </c>
       <c r="M23" t="n">
-        <v>3709.18456873489</v>
+        <v>2874.834276776712</v>
       </c>
       <c r="N23" t="n">
-        <v>4543.625304281178</v>
+        <v>4129.421119877668</v>
       </c>
       <c r="O23" t="n">
-        <v>4726.873084111728</v>
+        <v>4312.668899708218</v>
       </c>
       <c r="P23" t="n">
-        <v>4883.270824609879</v>
+        <v>4469.06664020637</v>
       </c>
       <c r="Q23" t="n">
         <v>5000.719014380272</v>
@@ -6065,31 +6065,31 @@
         <v>101.3807549980571</v>
       </c>
       <c r="I24" t="n">
-        <v>121.4160016869068</v>
+        <v>147.4796748473644</v>
       </c>
       <c r="J24" t="n">
-        <v>500.9525749237573</v>
+        <v>527.016248084215</v>
       </c>
       <c r="K24" t="n">
-        <v>594.9191580248245</v>
+        <v>842.5354277321272</v>
       </c>
       <c r="L24" t="n">
-        <v>721.2688252008119</v>
+        <v>968.8850949081146</v>
       </c>
       <c r="M24" t="n">
-        <v>868.7129272663971</v>
+        <v>1116.3291969737</v>
       </c>
       <c r="N24" t="n">
-        <v>1020.05943598004</v>
+        <v>1267.675705687343</v>
       </c>
       <c r="O24" t="n">
-        <v>1158.511923512527</v>
+        <v>1406.12819321983</v>
       </c>
       <c r="P24" t="n">
-        <v>1269.632250944264</v>
+        <v>1517.248520651567</v>
       </c>
       <c r="Q24" t="n">
-        <v>1708.702294877407</v>
+        <v>1591.529516783067</v>
       </c>
       <c r="R24" t="n">
         <v>1744.832097696179</v>
@@ -6147,25 +6147,25 @@
         <v>101.3807549980571</v>
       </c>
       <c r="J25" t="n">
-        <v>135.8723411542928</v>
+        <v>222.4520263189827</v>
       </c>
       <c r="K25" t="n">
-        <v>467.3110671767196</v>
+        <v>553.8907523414096</v>
       </c>
       <c r="L25" t="n">
-        <v>958.0521820678746</v>
+        <v>1044.631867232564</v>
       </c>
       <c r="M25" t="n">
-        <v>1494.010064947897</v>
+        <v>1434.843674175724</v>
       </c>
       <c r="N25" t="n">
-        <v>2010.924502639155</v>
+        <v>1951.758111866983</v>
       </c>
       <c r="O25" t="n">
-        <v>2499.550313721328</v>
+        <v>2440.383922949155</v>
       </c>
       <c r="P25" t="n">
-        <v>2906.061458973984</v>
+        <v>2846.895068201811</v>
       </c>
       <c r="Q25" t="n">
         <v>3055.939328225599</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1838.911347206288</v>
+        <v>2313.254482227824</v>
       </c>
       <c r="C26" t="n">
-        <v>1400.768874389711</v>
+        <v>1875.112009411247</v>
       </c>
       <c r="D26" t="n">
-        <v>1348.619427554108</v>
+        <v>1439.202224585692</v>
       </c>
       <c r="E26" t="n">
-        <v>914.844682712403</v>
+        <v>1005.427479743987</v>
       </c>
       <c r="F26" t="n">
-        <v>486.9772531216108</v>
+        <v>577.5600501531944</v>
       </c>
       <c r="G26" t="n">
-        <v>86.68910088977816</v>
+        <v>177.2718979213618</v>
       </c>
       <c r="H26" t="n">
-        <v>86.68910088977816</v>
+        <v>86.68910088977815</v>
       </c>
       <c r="I26" t="n">
         <v>128.2101708451769</v>
@@ -6229,49 +6229,49 @@
         <v>655.7732542793882</v>
       </c>
       <c r="K26" t="n">
-        <v>794.1196113721929</v>
+        <v>1628.469903330371</v>
       </c>
       <c r="L26" t="n">
-        <v>965.7505007675354</v>
+        <v>1800.100792725714</v>
       </c>
       <c r="M26" t="n">
-        <v>2038.52812427854</v>
+        <v>1991.07322691002</v>
       </c>
       <c r="N26" t="n">
-        <v>3093.38974815558</v>
+        <v>2185.135794734961</v>
       </c>
       <c r="O26" t="n">
-        <v>3276.637527986129</v>
+        <v>2448.327653152732</v>
       </c>
       <c r="P26" t="n">
         <v>3433.03526848428</v>
       </c>
       <c r="Q26" t="n">
-        <v>4096.982244213268</v>
+        <v>4096.982244213267</v>
       </c>
       <c r="R26" t="n">
-        <v>4334.455044488908</v>
+        <v>4334.455044488907</v>
       </c>
       <c r="S26" t="n">
-        <v>4334.455044488908</v>
+        <v>4334.455044488907</v>
       </c>
       <c r="T26" t="n">
-        <v>4119.245437818762</v>
+        <v>4334.455044488907</v>
       </c>
       <c r="U26" t="n">
-        <v>3860.111909467371</v>
+        <v>4334.455044488907</v>
       </c>
       <c r="V26" t="n">
-        <v>3497.494959401198</v>
+        <v>3971.838094422734</v>
       </c>
       <c r="W26" t="n">
-        <v>3092.639504812231</v>
+        <v>3566.982639833767</v>
       </c>
       <c r="X26" t="n">
-        <v>2673.497041391542</v>
+        <v>3147.840176413078</v>
       </c>
       <c r="Y26" t="n">
-        <v>2265.210917691195</v>
+        <v>2739.554052712731</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3190.847527629945</v>
+        <v>586.5329267289364</v>
       </c>
       <c r="C27" t="n">
-        <v>3084.391066466587</v>
+        <v>480.0764655655788</v>
       </c>
       <c r="D27" t="n">
-        <v>2989.30077761314</v>
+        <v>384.986176712132</v>
       </c>
       <c r="E27" t="n">
-        <v>2895.180362940094</v>
+        <v>290.8657620390857</v>
       </c>
       <c r="F27" t="n">
-        <v>2811.796524556255</v>
+        <v>207.4819236552474</v>
       </c>
       <c r="G27" t="n">
-        <v>2727.005165508318</v>
+        <v>122.6905646073105</v>
       </c>
       <c r="H27" t="n">
-        <v>2691.003701790786</v>
+        <v>86.68910088977815</v>
       </c>
       <c r="I27" t="n">
-        <v>2711.038948479636</v>
+        <v>132.7880207390854</v>
       </c>
       <c r="J27" t="n">
-        <v>3090.575521716486</v>
+        <v>512.3245939759361</v>
       </c>
       <c r="K27" t="n">
-        <v>3184.542104817553</v>
+        <v>827.8437736238484</v>
       </c>
       <c r="L27" t="n">
-        <v>3310.891771993541</v>
+        <v>954.1934407998359</v>
       </c>
       <c r="M27" t="n">
-        <v>3458.335874059126</v>
+        <v>1101.637542865421</v>
       </c>
       <c r="N27" t="n">
-        <v>3609.682382772769</v>
+        <v>1252.984051579064</v>
       </c>
       <c r="O27" t="n">
-        <v>3748.134870305256</v>
+        <v>1391.436539111551</v>
       </c>
       <c r="P27" t="n">
-        <v>3859.255197736993</v>
+        <v>1502.556866543288</v>
       </c>
       <c r="Q27" t="n">
-        <v>4298.325241670137</v>
+        <v>1576.837862674789</v>
       </c>
       <c r="R27" t="n">
-        <v>4334.455044488908</v>
+        <v>1730.1404435879</v>
       </c>
       <c r="S27" t="n">
-        <v>4282.027894019303</v>
+        <v>1677.713293118295</v>
       </c>
       <c r="T27" t="n">
-        <v>4154.242401667111</v>
+        <v>1549.927800766103</v>
       </c>
       <c r="U27" t="n">
-        <v>3977.944915896413</v>
+        <v>1373.630314995406</v>
       </c>
       <c r="V27" t="n">
-        <v>3778.827397958413</v>
+        <v>1174.512797057405</v>
       </c>
       <c r="W27" t="n">
-        <v>3593.504643691607</v>
+        <v>989.1900427905989</v>
       </c>
       <c r="X27" t="n">
-        <v>3438.637207930487</v>
+        <v>834.3226070294788</v>
       </c>
       <c r="Y27" t="n">
-        <v>3312.151428709708</v>
+        <v>707.8368278086996</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2438.117898572514</v>
+        <v>1145.854807512352</v>
       </c>
       <c r="C28" t="n">
-        <v>2265.556187055739</v>
+        <v>973.2930959955773</v>
       </c>
       <c r="D28" t="n">
-        <v>2099.678194257262</v>
+        <v>807.4151031971001</v>
       </c>
       <c r="E28" t="n">
-        <v>1929.920190507999</v>
+        <v>637.6570994478373</v>
       </c>
       <c r="F28" t="n">
-        <v>1753.213136469755</v>
+        <v>460.9500454095935</v>
       </c>
       <c r="G28" t="n">
-        <v>1588.119625357917</v>
+        <v>295.856534297756</v>
       </c>
       <c r="H28" t="n">
-        <v>1452.64302429705</v>
+        <v>160.379933236889</v>
       </c>
       <c r="I28" t="n">
-        <v>1378.95219194994</v>
+        <v>86.68910088977815</v>
       </c>
       <c r="J28" t="n">
-        <v>1413.443778106175</v>
+        <v>207.7603722107037</v>
       </c>
       <c r="K28" t="n">
-        <v>1744.882504128602</v>
+        <v>539.1990982331305</v>
       </c>
       <c r="L28" t="n">
-        <v>2235.623619019757</v>
+        <v>1029.940213124285</v>
       </c>
       <c r="M28" t="n">
-        <v>2771.581501899779</v>
+        <v>1565.898096004308</v>
       </c>
       <c r="N28" t="n">
-        <v>3288.495939591038</v>
+        <v>2082.812533695566</v>
       </c>
       <c r="O28" t="n">
-        <v>3777.12175067321</v>
+        <v>2571.438344777739</v>
       </c>
       <c r="P28" t="n">
-        <v>4183.632895925866</v>
+        <v>2977.949490030394</v>
       </c>
       <c r="Q28" t="n">
-        <v>4333.510765177482</v>
+        <v>3041.24767411732</v>
       </c>
       <c r="R28" t="n">
-        <v>4334.455044488908</v>
+        <v>3042.191953428747</v>
       </c>
       <c r="S28" t="n">
-        <v>4183.888342369594</v>
+        <v>2891.625251309433</v>
       </c>
       <c r="T28" t="n">
-        <v>3940.135705178026</v>
+        <v>2647.872614117864</v>
       </c>
       <c r="U28" t="n">
-        <v>3661.729855187258</v>
+        <v>2369.466764127097</v>
       </c>
       <c r="V28" t="n">
-        <v>3374.774347057689</v>
+        <v>2082.511255997527</v>
       </c>
       <c r="W28" t="n">
-        <v>3102.74794264398</v>
+        <v>1810.484851583819</v>
       </c>
       <c r="X28" t="n">
-        <v>2857.356187977393</v>
+        <v>1565.093096917231</v>
       </c>
       <c r="Y28" t="n">
-        <v>2629.936517291501</v>
+        <v>1337.67342623134</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2222.67168519624</v>
+        <v>2072.569908619489</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.529212379663</v>
+        <v>1634.427435802912</v>
       </c>
       <c r="D29" t="n">
-        <v>1348.619427554108</v>
+        <v>1198.517650977356</v>
       </c>
       <c r="E29" t="n">
-        <v>914.844682712403</v>
+        <v>764.7429061356513</v>
       </c>
       <c r="F29" t="n">
-        <v>486.9772531216108</v>
+        <v>764.7429061356513</v>
       </c>
       <c r="G29" t="n">
-        <v>86.68910088977816</v>
+        <v>364.4547539038186</v>
       </c>
       <c r="H29" t="n">
-        <v>86.68910088977816</v>
+        <v>86.68910088977815</v>
       </c>
       <c r="I29" t="n">
         <v>128.2101708451769</v>
       </c>
       <c r="J29" t="n">
-        <v>220.5185668264703</v>
+        <v>655.7732542793882</v>
       </c>
       <c r="K29" t="n">
-        <v>1193.215215877453</v>
+        <v>826.608792590894</v>
       </c>
       <c r="L29" t="n">
-        <v>2265.992839388458</v>
+        <v>998.2396819862364</v>
       </c>
       <c r="M29" t="n">
-        <v>2456.965273572764</v>
+        <v>2071.017305497241</v>
       </c>
       <c r="N29" t="n">
-        <v>3262.543812908636</v>
+        <v>2265.079873322182</v>
       </c>
       <c r="O29" t="n">
-        <v>3445.791592739186</v>
+        <v>2448.327653152732</v>
       </c>
       <c r="P29" t="n">
-        <v>3602.189333237337</v>
+        <v>3433.03526848428</v>
       </c>
       <c r="Q29" t="n">
-        <v>4266.136308966325</v>
+        <v>4096.982244213267</v>
       </c>
       <c r="R29" t="n">
-        <v>4334.455044488908</v>
+        <v>4334.455044488907</v>
       </c>
       <c r="S29" t="n">
-        <v>4334.455044488908</v>
+        <v>4276.089984187233</v>
       </c>
       <c r="T29" t="n">
-        <v>4119.245437818762</v>
+        <v>4060.880377517087</v>
       </c>
       <c r="U29" t="n">
-        <v>3860.111909467371</v>
+        <v>3801.746849165696</v>
       </c>
       <c r="V29" t="n">
-        <v>3497.494959401198</v>
+        <v>3731.153520814399</v>
       </c>
       <c r="W29" t="n">
-        <v>3092.639504812231</v>
+        <v>3326.298066225432</v>
       </c>
       <c r="X29" t="n">
-        <v>3057.257379381495</v>
+        <v>2907.155602804743</v>
       </c>
       <c r="Y29" t="n">
-        <v>2648.971255681148</v>
+        <v>2498.869479104396</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>586.5329267289366</v>
+        <v>586.5329267289364</v>
       </c>
       <c r="C30" t="n">
         <v>480.0764655655788</v>
       </c>
       <c r="D30" t="n">
-        <v>384.9861767121321</v>
+        <v>384.986176712132</v>
       </c>
       <c r="E30" t="n">
-        <v>290.8657620390858</v>
+        <v>290.8657620390857</v>
       </c>
       <c r="F30" t="n">
         <v>207.4819236552474</v>
@@ -6536,34 +6536,34 @@
         <v>122.6905646073105</v>
       </c>
       <c r="H30" t="n">
-        <v>86.68910088977816</v>
+        <v>86.68910088977815</v>
       </c>
       <c r="I30" t="n">
-        <v>106.7243475786278</v>
+        <v>132.7880207390854</v>
       </c>
       <c r="J30" t="n">
-        <v>161.702595849266</v>
+        <v>512.3245939759361</v>
       </c>
       <c r="K30" t="n">
-        <v>255.6691789503332</v>
+        <v>827.8437736238484</v>
       </c>
       <c r="L30" t="n">
-        <v>382.0188461263206</v>
+        <v>954.1934407998359</v>
       </c>
       <c r="M30" t="n">
-        <v>1218.810320959761</v>
+        <v>1101.637542865421</v>
       </c>
       <c r="N30" t="n">
-        <v>1370.156829673404</v>
+        <v>1252.984051579064</v>
       </c>
       <c r="O30" t="n">
-        <v>1508.609317205891</v>
+        <v>1391.436539111551</v>
       </c>
       <c r="P30" t="n">
-        <v>1619.729644637628</v>
+        <v>1502.556866543288</v>
       </c>
       <c r="Q30" t="n">
-        <v>1694.010640769128</v>
+        <v>1576.837862674789</v>
       </c>
       <c r="R30" t="n">
         <v>1730.1404435879</v>
@@ -6584,10 +6584,10 @@
         <v>989.1900427905989</v>
       </c>
       <c r="X30" t="n">
-        <v>834.3226070294789</v>
+        <v>834.3226070294788</v>
       </c>
       <c r="Y30" t="n">
-        <v>707.8368278086997</v>
+        <v>707.8368278086996</v>
       </c>
     </row>
     <row r="31">
@@ -6618,28 +6618,28 @@
         <v>160.379933236889</v>
       </c>
       <c r="I31" t="n">
-        <v>86.68910088977816</v>
+        <v>86.68910088977815</v>
       </c>
       <c r="J31" t="n">
-        <v>121.1806870460138</v>
+        <v>207.7603722107037</v>
       </c>
       <c r="K31" t="n">
-        <v>452.6194130684407</v>
+        <v>539.1990982331305</v>
       </c>
       <c r="L31" t="n">
-        <v>943.3605279595956</v>
+        <v>1029.940213124285</v>
       </c>
       <c r="M31" t="n">
-        <v>1479.318410839618</v>
+        <v>1420.152020067445</v>
       </c>
       <c r="N31" t="n">
-        <v>1996.232848530876</v>
+        <v>1937.066457758703</v>
       </c>
       <c r="O31" t="n">
-        <v>2484.858659613049</v>
+        <v>2425.692268840876</v>
       </c>
       <c r="P31" t="n">
-        <v>2891.369804865705</v>
+        <v>2832.203414093532</v>
       </c>
       <c r="Q31" t="n">
         <v>3041.24767411732</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2500.43733821028</v>
+        <v>1780.546286904613</v>
       </c>
       <c r="C32" t="n">
-        <v>2062.294865393704</v>
+        <v>1342.403814088036</v>
       </c>
       <c r="D32" t="n">
-        <v>1626.385080568148</v>
+        <v>906.4940292624806</v>
       </c>
       <c r="E32" t="n">
-        <v>1192.610335726444</v>
+        <v>906.4940292624806</v>
       </c>
       <c r="F32" t="n">
         <v>764.7429061356513</v>
@@ -6694,7 +6694,7 @@
         <v>364.4547539038186</v>
       </c>
       <c r="H32" t="n">
-        <v>86.68910088977816</v>
+        <v>86.68910088977815</v>
       </c>
       <c r="I32" t="n">
         <v>128.2101708451769</v>
@@ -6709,7 +6709,7 @@
         <v>1431.64254743028</v>
       </c>
       <c r="M32" t="n">
-        <v>2504.420170941285</v>
+        <v>2504.420170941284</v>
       </c>
       <c r="N32" t="n">
         <v>3577.197794452289</v>
@@ -6718,34 +6718,34 @@
         <v>3760.445574282839</v>
       </c>
       <c r="P32" t="n">
-        <v>4148.688119195932</v>
+        <v>3916.84331478099</v>
       </c>
       <c r="Q32" t="n">
-        <v>4266.136308966325</v>
+        <v>4096.982244213267</v>
       </c>
       <c r="R32" t="n">
-        <v>4334.455044488908</v>
+        <v>4334.455044488907</v>
       </c>
       <c r="S32" t="n">
-        <v>4334.455044488908</v>
+        <v>4276.089984187233</v>
       </c>
       <c r="T32" t="n">
-        <v>4119.245437818762</v>
+        <v>4060.880377517087</v>
       </c>
       <c r="U32" t="n">
-        <v>3860.111909467371</v>
+        <v>3801.746849165696</v>
       </c>
       <c r="V32" t="n">
-        <v>3860.111909467371</v>
+        <v>3439.129899099523</v>
       </c>
       <c r="W32" t="n">
-        <v>3455.256454878405</v>
+        <v>3034.274444510556</v>
       </c>
       <c r="X32" t="n">
-        <v>3036.113991457716</v>
+        <v>2615.131981089867</v>
       </c>
       <c r="Y32" t="n">
-        <v>2627.827867757369</v>
+        <v>2206.84585738952</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3190.847527629945</v>
+        <v>586.5329267289364</v>
       </c>
       <c r="C33" t="n">
-        <v>3084.391066466587</v>
+        <v>480.0764655655788</v>
       </c>
       <c r="D33" t="n">
-        <v>2989.30077761314</v>
+        <v>384.986176712132</v>
       </c>
       <c r="E33" t="n">
-        <v>2895.180362940094</v>
+        <v>290.8657620390857</v>
       </c>
       <c r="F33" t="n">
-        <v>2811.796524556255</v>
+        <v>207.4819236552474</v>
       </c>
       <c r="G33" t="n">
-        <v>2727.005165508318</v>
+        <v>122.6905646073105</v>
       </c>
       <c r="H33" t="n">
-        <v>2691.003701790786</v>
+        <v>86.68910088977815</v>
       </c>
       <c r="I33" t="n">
-        <v>2711.038948479636</v>
+        <v>132.7880207390854</v>
       </c>
       <c r="J33" t="n">
-        <v>3090.575521716486</v>
+        <v>512.3245939759361</v>
       </c>
       <c r="K33" t="n">
-        <v>3184.542104817553</v>
+        <v>606.2911770770032</v>
       </c>
       <c r="L33" t="n">
-        <v>3310.891771993541</v>
+        <v>732.6408442529906</v>
       </c>
       <c r="M33" t="n">
-        <v>3458.335874059126</v>
+        <v>880.0849463185759</v>
       </c>
       <c r="N33" t="n">
-        <v>3609.682382772769</v>
+        <v>1031.431455032219</v>
       </c>
       <c r="O33" t="n">
-        <v>3748.134870305256</v>
+        <v>1169.883942564706</v>
       </c>
       <c r="P33" t="n">
-        <v>3859.255197736993</v>
+        <v>1281.004269996443</v>
       </c>
       <c r="Q33" t="n">
-        <v>4298.325241670137</v>
+        <v>1576.837862674789</v>
       </c>
       <c r="R33" t="n">
-        <v>4334.455044488908</v>
+        <v>1730.1404435879</v>
       </c>
       <c r="S33" t="n">
-        <v>4282.027894019303</v>
+        <v>1677.713293118295</v>
       </c>
       <c r="T33" t="n">
-        <v>4154.242401667111</v>
+        <v>1549.927800766103</v>
       </c>
       <c r="U33" t="n">
-        <v>3977.944915896413</v>
+        <v>1373.630314995406</v>
       </c>
       <c r="V33" t="n">
-        <v>3778.827397958413</v>
+        <v>1174.512797057405</v>
       </c>
       <c r="W33" t="n">
-        <v>3593.504643691607</v>
+        <v>989.1900427905989</v>
       </c>
       <c r="X33" t="n">
-        <v>3438.637207930487</v>
+        <v>834.3226070294788</v>
       </c>
       <c r="Y33" t="n">
-        <v>3312.151428709708</v>
+        <v>707.8368278086996</v>
       </c>
     </row>
     <row r="34">
@@ -6855,28 +6855,28 @@
         <v>160.379933236889</v>
       </c>
       <c r="I34" t="n">
-        <v>86.68910088977816</v>
+        <v>86.68910088977815</v>
       </c>
       <c r="J34" t="n">
-        <v>121.1806870460138</v>
+        <v>207.7603722107037</v>
       </c>
       <c r="K34" t="n">
-        <v>393.4530222962678</v>
+        <v>539.1990982331305</v>
       </c>
       <c r="L34" t="n">
-        <v>884.1941371874227</v>
+        <v>1029.940213124285</v>
       </c>
       <c r="M34" t="n">
-        <v>1420.152020067445</v>
+        <v>1565.898096004308</v>
       </c>
       <c r="N34" t="n">
-        <v>1937.066457758703</v>
+        <v>2082.812533695566</v>
       </c>
       <c r="O34" t="n">
-        <v>2425.692268840876</v>
+        <v>2571.438344777739</v>
       </c>
       <c r="P34" t="n">
-        <v>2832.203414093532</v>
+        <v>2977.949490030394</v>
       </c>
       <c r="Q34" t="n">
         <v>3041.24767411732</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2248.346832629521</v>
+        <v>1083.660958117932</v>
       </c>
       <c r="C35" t="n">
-        <v>1810.204359812945</v>
+        <v>1083.660958117932</v>
       </c>
       <c r="D35" t="n">
-        <v>1374.294574987389</v>
+        <v>1083.660958117932</v>
       </c>
       <c r="E35" t="n">
-        <v>940.5198301456844</v>
+        <v>649.8862132762274</v>
       </c>
       <c r="F35" t="n">
-        <v>512.6524005548922</v>
+        <v>460.6045369775259</v>
       </c>
       <c r="G35" t="n">
-        <v>338.0820377597337</v>
+        <v>60.31638474569325</v>
       </c>
       <c r="H35" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569325</v>
       </c>
       <c r="I35" t="n">
         <v>101.837454701092</v>
@@ -6943,13 +6943,13 @@
         <v>332.4922077751902</v>
       </c>
       <c r="L35" t="n">
-        <v>997.5762692070765</v>
+        <v>1078.907469003144</v>
       </c>
       <c r="M35" t="n">
-        <v>1743.99153043503</v>
+        <v>1825.322730231098</v>
       </c>
       <c r="N35" t="n">
-        <v>2490.406791662984</v>
+        <v>2490.406791662985</v>
       </c>
       <c r="O35" t="n">
         <v>2673.654571493534</v>
@@ -6964,25 +6964,25 @@
         <v>3015.819237284662</v>
       </c>
       <c r="S35" t="n">
-        <v>3015.819237284662</v>
+        <v>2957.454176982988</v>
       </c>
       <c r="T35" t="n">
-        <v>3015.819237284662</v>
+        <v>2742.244570312842</v>
       </c>
       <c r="U35" t="n">
-        <v>3015.819237284662</v>
+        <v>2742.244570312842</v>
       </c>
       <c r="V35" t="n">
-        <v>2653.202287218488</v>
+        <v>2742.244570312842</v>
       </c>
       <c r="W35" t="n">
-        <v>2248.346832629521</v>
+        <v>2337.389115723876</v>
       </c>
       <c r="X35" t="n">
-        <v>2248.346832629521</v>
+        <v>1918.246652303187</v>
       </c>
       <c r="Y35" t="n">
-        <v>2248.346832629521</v>
+        <v>1509.96052860284</v>
       </c>
     </row>
     <row r="36">
@@ -6998,46 +6998,46 @@
         <v>453.7037494214939</v>
       </c>
       <c r="D36" t="n">
-        <v>358.6134605680471</v>
+        <v>358.6134605680472</v>
       </c>
       <c r="E36" t="n">
-        <v>264.4930458950008</v>
+        <v>264.4930458950009</v>
       </c>
       <c r="F36" t="n">
         <v>181.1092075111625</v>
       </c>
       <c r="G36" t="n">
-        <v>96.3178484632256</v>
+        <v>96.31784846322562</v>
       </c>
       <c r="H36" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569325</v>
       </c>
       <c r="I36" t="n">
-        <v>80.35163143454288</v>
+        <v>106.4153045950005</v>
       </c>
       <c r="J36" t="n">
-        <v>135.3298797051811</v>
+        <v>485.951877831851</v>
       </c>
       <c r="K36" t="n">
-        <v>377.9048969420275</v>
+        <v>801.4710574797633</v>
       </c>
       <c r="L36" t="n">
-        <v>504.254564118015</v>
+        <v>927.8207246557507</v>
       </c>
       <c r="M36" t="n">
-        <v>651.6986661836002</v>
+        <v>1075.264826721336</v>
       </c>
       <c r="N36" t="n">
-        <v>803.0451748972428</v>
+        <v>1226.611335434979</v>
       </c>
       <c r="O36" t="n">
-        <v>941.4976624297302</v>
+        <v>1365.063822967466</v>
       </c>
       <c r="P36" t="n">
-        <v>1052.617989861467</v>
+        <v>1476.184150399203</v>
       </c>
       <c r="Q36" t="n">
-        <v>1667.637924625043</v>
+        <v>1550.465146530704</v>
       </c>
       <c r="R36" t="n">
         <v>1703.767727443815</v>
@@ -7092,28 +7092,28 @@
         <v>134.0072170928041</v>
       </c>
       <c r="I37" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569325</v>
       </c>
       <c r="J37" t="n">
-        <v>94.80797090192894</v>
+        <v>181.3876560666188</v>
       </c>
       <c r="K37" t="n">
-        <v>426.2466969243558</v>
+        <v>512.8263820890456</v>
       </c>
       <c r="L37" t="n">
-        <v>916.9878118155107</v>
+        <v>1003.567496980201</v>
       </c>
       <c r="M37" t="n">
-        <v>1452.945694695533</v>
+        <v>1539.525379860223</v>
       </c>
       <c r="N37" t="n">
-        <v>1969.860132386792</v>
+        <v>1910.693741614619</v>
       </c>
       <c r="O37" t="n">
-        <v>2458.485943468964</v>
+        <v>2399.319552696791</v>
       </c>
       <c r="P37" t="n">
-        <v>2864.99708872162</v>
+        <v>2805.830697949447</v>
       </c>
       <c r="Q37" t="n">
         <v>3014.874957973235</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1357.868344003746</v>
+        <v>1966.023936429262</v>
       </c>
       <c r="C38" t="n">
-        <v>1357.868344003746</v>
+        <v>1966.023936429262</v>
       </c>
       <c r="D38" t="n">
-        <v>921.9585591781904</v>
+        <v>1530.114151603706</v>
       </c>
       <c r="E38" t="n">
-        <v>488.1838143364855</v>
+        <v>1096.339406762002</v>
       </c>
       <c r="F38" t="n">
-        <v>60.31638474569324</v>
+        <v>668.4719771712093</v>
       </c>
       <c r="G38" t="n">
-        <v>60.31638474569324</v>
+        <v>268.1838249393767</v>
       </c>
       <c r="H38" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569325</v>
       </c>
       <c r="I38" t="n">
         <v>101.837454701092</v>
@@ -7180,13 +7180,13 @@
         <v>332.4922077751902</v>
       </c>
       <c r="L38" t="n">
-        <v>997.5762692070765</v>
+        <v>1078.907469003144</v>
       </c>
       <c r="M38" t="n">
-        <v>1743.99153043503</v>
+        <v>1825.322730231098</v>
       </c>
       <c r="N38" t="n">
-        <v>2490.406791662984</v>
+        <v>2490.406791662985</v>
       </c>
       <c r="O38" t="n">
         <v>2673.654571493534</v>
@@ -7204,22 +7204,22 @@
         <v>3015.819237284662</v>
       </c>
       <c r="T38" t="n">
-        <v>3015.819237284662</v>
+        <v>2800.609630614516</v>
       </c>
       <c r="U38" t="n">
-        <v>3015.819237284662</v>
+        <v>2800.609630614516</v>
       </c>
       <c r="V38" t="n">
-        <v>3015.819237284662</v>
+        <v>2800.609630614516</v>
       </c>
       <c r="W38" t="n">
-        <v>2610.963782695695</v>
+        <v>2800.609630614516</v>
       </c>
       <c r="X38" t="n">
-        <v>2191.821319275006</v>
+        <v>2800.609630614516</v>
       </c>
       <c r="Y38" t="n">
-        <v>1783.535195574659</v>
+        <v>2392.32350691417</v>
       </c>
     </row>
     <row r="39">
@@ -7235,46 +7235,46 @@
         <v>453.7037494214939</v>
       </c>
       <c r="D39" t="n">
-        <v>358.6134605680471</v>
+        <v>358.6134605680472</v>
       </c>
       <c r="E39" t="n">
-        <v>264.4930458950008</v>
+        <v>264.4930458950009</v>
       </c>
       <c r="F39" t="n">
         <v>181.1092075111625</v>
       </c>
       <c r="G39" t="n">
-        <v>96.3178484632256</v>
+        <v>96.31784846322562</v>
       </c>
       <c r="H39" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569325</v>
       </c>
       <c r="I39" t="n">
-        <v>80.35163143454288</v>
+        <v>106.4153045950005</v>
       </c>
       <c r="J39" t="n">
-        <v>135.3298797051811</v>
+        <v>485.951877831851</v>
       </c>
       <c r="K39" t="n">
-        <v>229.2964628062483</v>
+        <v>579.9184609329183</v>
       </c>
       <c r="L39" t="n">
-        <v>355.6461299822357</v>
+        <v>706.2681281089057</v>
       </c>
       <c r="M39" t="n">
-        <v>597.3688523013647</v>
+        <v>853.7122301744909</v>
       </c>
       <c r="N39" t="n">
-        <v>1343.784113529318</v>
+        <v>1005.058738888133</v>
       </c>
       <c r="O39" t="n">
-        <v>1482.236601061806</v>
+        <v>1143.511226420621</v>
       </c>
       <c r="P39" t="n">
-        <v>1593.356928493543</v>
+        <v>1254.631553852358</v>
       </c>
       <c r="Q39" t="n">
-        <v>1667.637924625043</v>
+        <v>1550.465146530704</v>
       </c>
       <c r="R39" t="n">
         <v>1703.767727443815</v>
@@ -7329,28 +7329,28 @@
         <v>134.0072170928041</v>
       </c>
       <c r="I40" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569325</v>
       </c>
       <c r="J40" t="n">
-        <v>94.80797090192894</v>
+        <v>181.3876560666188</v>
       </c>
       <c r="K40" t="n">
-        <v>426.2466969243558</v>
+        <v>512.8263820890456</v>
       </c>
       <c r="L40" t="n">
-        <v>916.9878118155107</v>
+        <v>1003.567496980201</v>
       </c>
       <c r="M40" t="n">
-        <v>1452.945694695533</v>
+        <v>1539.525379860223</v>
       </c>
       <c r="N40" t="n">
-        <v>1969.860132386792</v>
+        <v>2056.439817551482</v>
       </c>
       <c r="O40" t="n">
-        <v>2458.485943468964</v>
+        <v>2545.065628633654</v>
       </c>
       <c r="P40" t="n">
-        <v>2864.99708872162</v>
+        <v>2951.57677388631</v>
       </c>
       <c r="Q40" t="n">
         <v>3014.874957973235</v>
@@ -7374,7 +7374,7 @@
         <v>1784.112135439734</v>
       </c>
       <c r="X40" t="n">
-        <v>1538.720380773147</v>
+        <v>1538.720380773146</v>
       </c>
       <c r="Y40" t="n">
         <v>1311.300710087255</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1796.010816820323</v>
+        <v>2226.902716733581</v>
       </c>
       <c r="C41" t="n">
-        <v>1357.868344003746</v>
+        <v>1788.760243917004</v>
       </c>
       <c r="D41" t="n">
-        <v>921.9585591781904</v>
+        <v>1352.850459091449</v>
       </c>
       <c r="E41" t="n">
-        <v>488.1838143364855</v>
+        <v>919.0757142497437</v>
       </c>
       <c r="F41" t="n">
-        <v>60.31638474569324</v>
+        <v>491.2082846589514</v>
       </c>
       <c r="G41" t="n">
-        <v>60.31638474569324</v>
+        <v>338.0820377597337</v>
       </c>
       <c r="H41" t="n">
         <v>60.31638474569324</v>
@@ -7426,13 +7426,13 @@
         <v>1879.855613676346</v>
       </c>
       <c r="O41" t="n">
-        <v>2626.2708749043</v>
+        <v>2063.103393506895</v>
       </c>
       <c r="P41" t="n">
-        <v>2782.668615402451</v>
+        <v>2219.501134005046</v>
       </c>
       <c r="Q41" t="n">
-        <v>2947.500501762078</v>
+        <v>2778.346437009021</v>
       </c>
       <c r="R41" t="n">
         <v>3015.819237284662</v>
@@ -7447,16 +7447,16 @@
         <v>3015.819237284662</v>
       </c>
       <c r="V41" t="n">
-        <v>3015.819237284662</v>
+        <v>2653.202287218488</v>
       </c>
       <c r="W41" t="n">
-        <v>2610.963782695695</v>
+        <v>2653.202287218488</v>
       </c>
       <c r="X41" t="n">
-        <v>2191.821319275006</v>
+        <v>2653.202287218488</v>
       </c>
       <c r="Y41" t="n">
-        <v>1796.010816820323</v>
+        <v>2653.202287218488</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>60.31638474569324</v>
       </c>
       <c r="I42" t="n">
-        <v>80.35163143454288</v>
+        <v>106.4153045950005</v>
       </c>
       <c r="J42" t="n">
-        <v>135.3298797051811</v>
+        <v>485.951877831851</v>
       </c>
       <c r="K42" t="n">
-        <v>229.2964628062483</v>
+        <v>801.4710574797633</v>
       </c>
       <c r="L42" t="n">
-        <v>355.6461299822357</v>
+        <v>927.8207246557507</v>
       </c>
       <c r="M42" t="n">
-        <v>1102.061391210189</v>
+        <v>1075.264826721336</v>
       </c>
       <c r="N42" t="n">
-        <v>1343.784113529318</v>
+        <v>1226.611335434979</v>
       </c>
       <c r="O42" t="n">
-        <v>1482.236601061806</v>
+        <v>1365.063822967466</v>
       </c>
       <c r="P42" t="n">
-        <v>1593.356928493543</v>
+        <v>1476.184150399203</v>
       </c>
       <c r="Q42" t="n">
-        <v>1667.637924625043</v>
+        <v>1550.465146530704</v>
       </c>
       <c r="R42" t="n">
         <v>1703.767727443815</v>
@@ -7548,28 +7548,28 @@
         <v>1119.482091368267</v>
       </c>
       <c r="C43" t="n">
-        <v>946.9203798514924</v>
+        <v>946.9203798514923</v>
       </c>
       <c r="D43" t="n">
-        <v>781.0423870530151</v>
+        <v>781.0423870530149</v>
       </c>
       <c r="E43" t="n">
-        <v>611.2843833037523</v>
+        <v>611.2843833037518</v>
       </c>
       <c r="F43" t="n">
-        <v>434.5773292655085</v>
+        <v>434.5773292655081</v>
       </c>
       <c r="G43" t="n">
-        <v>269.4838181536707</v>
+        <v>269.4838181536702</v>
       </c>
       <c r="H43" t="n">
-        <v>134.0072170928041</v>
+        <v>134.0072170928033</v>
       </c>
       <c r="I43" t="n">
         <v>60.31638474569324</v>
       </c>
       <c r="J43" t="n">
-        <v>94.80797090192894</v>
+        <v>181.3876560666188</v>
       </c>
       <c r="K43" t="n">
         <v>367.0803061521829</v>
@@ -7602,10 +7602,10 @@
         <v>2621.499897973779</v>
       </c>
       <c r="U43" t="n">
-        <v>2343.094047983012</v>
+        <v>2343.094047983011</v>
       </c>
       <c r="V43" t="n">
-        <v>2056.138539853443</v>
+        <v>2056.138539853442</v>
       </c>
       <c r="W43" t="n">
         <v>1784.112135439734</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1413.761138444267</v>
+        <v>1368.14338722953</v>
       </c>
       <c r="C44" t="n">
-        <v>1413.761138444267</v>
+        <v>930.0009144129535</v>
       </c>
       <c r="D44" t="n">
-        <v>977.8513536187115</v>
+        <v>494.0911295873981</v>
       </c>
       <c r="E44" t="n">
-        <v>544.0766087770066</v>
+        <v>60.31638474569324</v>
       </c>
       <c r="F44" t="n">
-        <v>116.2091791862144</v>
+        <v>60.31638474569324</v>
       </c>
       <c r="G44" t="n">
         <v>60.31638474569324</v>
@@ -7651,22 +7651,22 @@
         <v>629.4005381353032</v>
       </c>
       <c r="K44" t="n">
-        <v>1375.815799363257</v>
+        <v>767.7468952281081</v>
       </c>
       <c r="L44" t="n">
-        <v>1547.4466887586</v>
+        <v>939.3777846234506</v>
       </c>
       <c r="M44" t="n">
-        <v>1738.419122942906</v>
+        <v>1130.350218807757</v>
       </c>
       <c r="N44" t="n">
-        <v>1932.481690767848</v>
+        <v>1324.412786632698</v>
       </c>
       <c r="O44" t="n">
-        <v>2504.500506740477</v>
+        <v>1507.660566463248</v>
       </c>
       <c r="P44" t="n">
-        <v>2660.898247238628</v>
+        <v>2114.399461280034</v>
       </c>
       <c r="Q44" t="n">
         <v>2778.346437009021</v>
@@ -7675,25 +7675,25 @@
         <v>3015.819237284662</v>
       </c>
       <c r="S44" t="n">
-        <v>3015.819237284662</v>
+        <v>2957.454176982988</v>
       </c>
       <c r="T44" t="n">
-        <v>3015.819237284662</v>
+        <v>2817.32245276813</v>
       </c>
       <c r="U44" t="n">
-        <v>3015.819237284662</v>
+        <v>2558.18892441674</v>
       </c>
       <c r="V44" t="n">
-        <v>2653.202287218488</v>
+        <v>2195.571974350566</v>
       </c>
       <c r="W44" t="n">
-        <v>2248.346832629521</v>
+        <v>2195.571974350566</v>
       </c>
       <c r="X44" t="n">
-        <v>2248.346832629521</v>
+        <v>1776.429510929877</v>
       </c>
       <c r="Y44" t="n">
-        <v>1840.060708929175</v>
+        <v>1368.14338722953</v>
       </c>
     </row>
     <row r="45">
@@ -7809,22 +7809,22 @@
         <v>94.80797090192894</v>
       </c>
       <c r="K46" t="n">
-        <v>367.0803061521829</v>
+        <v>426.2466969243558</v>
       </c>
       <c r="L46" t="n">
-        <v>857.8214210433378</v>
+        <v>916.9878118155107</v>
       </c>
       <c r="M46" t="n">
-        <v>1393.77930392336</v>
+        <v>1452.945694695533</v>
       </c>
       <c r="N46" t="n">
-        <v>1910.693741614619</v>
+        <v>1969.860132386792</v>
       </c>
       <c r="O46" t="n">
-        <v>2399.319552696791</v>
+        <v>2458.485943468964</v>
       </c>
       <c r="P46" t="n">
-        <v>2805.830697949447</v>
+        <v>2864.99708872162</v>
       </c>
       <c r="Q46" t="n">
         <v>3014.874957973235</v>
@@ -7987,19 +7987,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8145,13 +8145,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K5" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>407.1525905495951</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,13 +8306,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8382,19 +8382,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>298.8178948332412</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>131.8679565343714</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8528,25 +8528,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="N9" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="O9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L9" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8622,16 +8622,16 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.2110142779284</v>
+        <v>454.8900548673071</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>392.6980163051307</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>223.7905015624698</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>223.7905015624701</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -8856,7 +8856,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>316.9068598424751</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -8868,7 +8868,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>110.1276606991505</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8944,10 +8944,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>454.8900548673074</v>
+        <v>595.9772936664672</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>410.9317369165919</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>223.79050156247</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>368.4737856582245</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -9093,7 +9093,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>316.9068598424751</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9105,7 +9105,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>110.127660699151</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9175,19 +9175,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>557.9320135383964</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>507.4719324460571</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>454.8900548673073</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>223.7905015624698</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>368.4737856582246</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -9339,10 +9339,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>203.7988060944226</v>
       </c>
       <c r="Q19" t="n">
-        <v>110.127660699151</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>614.2110142779283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>280.3302400367706</v>
+        <v>454.8900548673073</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>223.7905015624698</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>342.1468430719041</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -9579,7 +9579,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>110.127660699151</v>
+        <v>22.67343326006994</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9649,7 +9649,7 @@
         <v>1074.357988804697</v>
       </c>
       <c r="N23" t="n">
-        <v>646.8466340619652</v>
+        <v>1071.236641692944</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>418.3880650540495</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>223.7905015624698</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>368.4737856582248</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -9804,7 +9804,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>316.9068598424751</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -9816,7 +9816,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>110.1276606991506</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9877,22 +9877,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>890.7123124512106</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>869.4939960122202</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>80.75159453254673</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>223.7905015624699</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>368.4737856582259</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>110.1276606991514</v>
+        <v>22.6734332600704</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>32.8173547663647</v>
       </c>
       <c r="L29" t="n">
-        <v>910.2492263794568</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>890.7123124512102</v>
       </c>
       <c r="N29" t="n">
-        <v>617.6929005160914</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,19 +10187,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>223.7905015624699</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>696.3104775432878</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10278,7 +10278,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>316.9068598424751</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>110.127660699151</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10354,10 +10354,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>910.2492263794569</v>
+        <v>910.2492263794567</v>
       </c>
       <c r="M32" t="n">
-        <v>890.7123124512104</v>
+        <v>890.7123124512102</v>
       </c>
       <c r="N32" t="n">
         <v>887.5909653394579</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>234.1866711262037</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>63.3239794564488</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>368.4737856582259</v>
+        <v>223.7905015624699</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>217.7697614130936</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>22.6734332600704</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10591,13 +10591,13 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>498.4375475116605</v>
+        <v>580.5902745783956</v>
       </c>
       <c r="M35" t="n">
-        <v>561.0533606501489</v>
+        <v>561.053360650149</v>
       </c>
       <c r="N35" t="n">
-        <v>557.9320135383964</v>
+        <v>475.7792864716616</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>150.10952943008</v>
+        <v>223.7905015624698</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10755,7 +10755,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>299.5078052735169</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
@@ -10764,7 +10764,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.127660699151</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10828,13 +10828,13 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>498.4375475116605</v>
+        <v>580.5902745783956</v>
       </c>
       <c r="M38" t="n">
-        <v>561.0533606501489</v>
+        <v>561.053360650149</v>
       </c>
       <c r="N38" t="n">
-        <v>557.9320135383964</v>
+        <v>475.7792864716616</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,10 +10910,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>95.2309295490341</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>601.0795479942536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>223.7905015624701</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -11001,7 +11001,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.1276606991505</v>
+        <v>22.67343326006994</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11074,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>568.8560418155598</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>47.86231978710521</v>
+        <v>445.8556699329106</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>223.7905015624698</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>605.0213728912813</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>91.28910465200647</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>217.7697614130936</v>
+        <v>130.315533974013</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
@@ -11299,7 +11299,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>614.2110142779284</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>392.698016305131</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>454.8900548673073</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>217.7697614130936</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
@@ -11475,7 +11475,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>110.127660699151</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>370.5091898384662</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,10 +23266,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.78140969865706</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>213.0575106034447</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5421930678769</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>228.9247663865948</v>
       </c>
     </row>
     <row r="12">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>14.91477169322008</v>
+        <v>396.2852707095142</v>
       </c>
       <c r="H14" t="n">
-        <v>274.9879964839001</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>57.78140969865706</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>213.0575106034447</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5421930678769</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>320.6850027644253</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>390.3606883298665</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>396.2852707095142</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.78140969865706</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>213.0575106034447</v>
       </c>
       <c r="U17" t="n">
         <v>256.5421930678769</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>366.3499459527456</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>28.88939456942347</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>358.4319541989165</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.9879964839001</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>213.0575106034447</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5421930678769</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>379.9227346100528</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.9879964839001</v>
+        <v>185.3110274226323</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>57.78140969865706</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>213.0575106034447</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.5421930678769</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>274.9879964839001</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.78140969865706</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>289.103385497727</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>379.922734610053</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>295.919950528441</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>283.2551433993233</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.78140969865706</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>236.1998957591698</v>
       </c>
       <c r="G35" t="n">
-        <v>223.4606115423074</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.9879964839001</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.78140969865706</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>213.0575106034447</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.5421930678769</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.6263917248546704</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>396.2852707095142</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.9879964839001</v>
+        <v>69.19923069215344</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>57.78140969865706</v>
       </c>
       <c r="T38" t="n">
-        <v>213.0575106034447</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.5421930678769</v>
@@ -25453,10 +25453,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>396.2852707095142</v>
+        <v>244.6902862792888</v>
       </c>
       <c r="H41" t="n">
-        <v>274.9879964839001</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>256.5421930678769</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>12.35086503320667</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>340.9514042133983</v>
+        <v>396.2852707095142</v>
       </c>
       <c r="H44" t="n">
         <v>274.9879964839001</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>57.78140969865706</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>213.0575106034447</v>
+        <v>74.32710363073579</v>
       </c>
       <c r="U44" t="n">
-        <v>256.5421930678769</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>456457.7259154606</v>
+        <v>456457.7259154607</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>456457.7259154606</v>
+        <v>456457.7259154607</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>591958.3743659803</v>
+        <v>591958.37436598</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>591958.3743659803</v>
+        <v>591958.37436598</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>456457.7259154606</v>
+        <v>456457.7259154607</v>
       </c>
     </row>
     <row r="14">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375303.1239232859</v>
+        <v>375303.123923286</v>
       </c>
       <c r="C2" t="n">
         <v>375303.1239232861</v>
@@ -26331,25 +26331,25 @@
         <v>264307.0673987882</v>
       </c>
       <c r="H2" t="n">
-        <v>264307.0673987881</v>
+        <v>264307.0673987882</v>
       </c>
       <c r="I2" t="n">
-        <v>375303.1239232859</v>
+        <v>375303.1239232858</v>
       </c>
       <c r="J2" t="n">
-        <v>335591.9178383217</v>
+        <v>335591.9178383216</v>
       </c>
       <c r="K2" t="n">
-        <v>335591.9178383217</v>
+        <v>335591.9178383216</v>
       </c>
       <c r="L2" t="n">
         <v>335591.9178383216</v>
       </c>
       <c r="M2" t="n">
-        <v>264307.0673987882</v>
+        <v>264307.0673987883</v>
       </c>
       <c r="N2" t="n">
-        <v>264307.0673987881</v>
+        <v>264307.0673987883</v>
       </c>
       <c r="O2" t="n">
         <v>264307.0673987882</v>
@@ -26389,7 +26389,7 @@
         <v>136498.4800234856</v>
       </c>
       <c r="J3" t="n">
-        <v>62964.67600115849</v>
+        <v>62964.67600115844</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,28 +26426,28 @@
         <v>236621.7058186226</v>
       </c>
       <c r="E4" t="n">
-        <v>60566.62850281399</v>
+        <v>60566.62850281398</v>
       </c>
       <c r="F4" t="n">
-        <v>60566.62850281399</v>
+        <v>60566.62850281398</v>
       </c>
       <c r="G4" t="n">
-        <v>60566.628502814</v>
+        <v>60566.62850281398</v>
       </c>
       <c r="H4" t="n">
-        <v>60566.628502814</v>
+        <v>60566.62850281398</v>
       </c>
       <c r="I4" t="n">
-        <v>105300.2703017902</v>
+        <v>105300.2703017903</v>
       </c>
       <c r="J4" t="n">
-        <v>89295.85605471254</v>
+        <v>89295.85605471249</v>
       </c>
       <c r="K4" t="n">
         <v>89295.85605471249</v>
       </c>
       <c r="L4" t="n">
-        <v>89295.85605471252</v>
+        <v>89295.85605471249</v>
       </c>
       <c r="M4" t="n">
         <v>60566.628502814</v>
@@ -26493,19 +26493,19 @@
         <v>83006.71125571876</v>
       </c>
       <c r="J5" t="n">
-        <v>71841.05413342676</v>
+        <v>71841.05413342675</v>
       </c>
       <c r="K5" t="n">
-        <v>71841.05413342676</v>
+        <v>71841.05413342675</v>
       </c>
       <c r="L5" t="n">
-        <v>71841.05413342676</v>
+        <v>71841.05413342675</v>
       </c>
       <c r="M5" t="n">
-        <v>51797.78986392222</v>
+        <v>51797.78986392223</v>
       </c>
       <c r="N5" t="n">
-        <v>51797.78986392222</v>
+        <v>51797.78986392223</v>
       </c>
       <c r="O5" t="n">
         <v>51797.78986392222</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-62934.67069226893</v>
+        <v>-62934.67069226884</v>
       </c>
       <c r="C6" t="n">
         <v>79256.62996744114</v>
       </c>
       <c r="D6" t="n">
-        <v>79256.62996744114</v>
+        <v>79256.62996744105</v>
       </c>
       <c r="E6" t="n">
-        <v>-166034.0956587652</v>
+        <v>-166430.5101463527</v>
       </c>
       <c r="F6" t="n">
-        <v>151942.649032052</v>
+        <v>151546.2345444645</v>
       </c>
       <c r="G6" t="n">
-        <v>151942.649032052</v>
+        <v>151546.2345444645</v>
       </c>
       <c r="H6" t="n">
-        <v>151942.6490320519</v>
+        <v>151546.2345444645</v>
       </c>
       <c r="I6" t="n">
-        <v>50497.66234229133</v>
+        <v>50497.66234229122</v>
       </c>
       <c r="J6" t="n">
-        <v>111490.3316490239</v>
+        <v>111348.5059130062</v>
       </c>
       <c r="K6" t="n">
-        <v>174455.0076501825</v>
+        <v>174313.1819141646</v>
       </c>
       <c r="L6" t="n">
-        <v>174455.0076501823</v>
+        <v>174313.1819141646</v>
       </c>
       <c r="M6" t="n">
-        <v>151942.649032052</v>
+        <v>151546.2345444646</v>
       </c>
       <c r="N6" t="n">
-        <v>151942.6490320519</v>
+        <v>151546.2345444646</v>
       </c>
       <c r="O6" t="n">
-        <v>151942.649032052</v>
+        <v>151546.2345444645</v>
       </c>
       <c r="P6" t="n">
-        <v>151942.649032052</v>
+        <v>151546.2345444645</v>
       </c>
     </row>
   </sheetData>
@@ -26822,10 +26822,10 @@
         <v>1083.613761122227</v>
       </c>
       <c r="M4" t="n">
-        <v>753.9548093211655</v>
+        <v>753.9548093211656</v>
       </c>
       <c r="N4" t="n">
-        <v>753.9548093211655</v>
+        <v>753.9548093211656</v>
       </c>
       <c r="O4" t="n">
         <v>753.9548093211655</v>
@@ -27035,7 +27035,7 @@
         <v>513.304628154548</v>
       </c>
       <c r="J4" t="n">
-        <v>240.6501811666176</v>
+        <v>240.6501811666174</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>53.58595617610928</v>
       </c>
       <c r="E2" t="n">
-        <v>383.6593544276682</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27444,7 +27444,7 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>71.97323367546629</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>237.2929137874768</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27624,10 +27624,10 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>7.022975389306339</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>12.57673674162123</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>100.3814443907421</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>86.48176642851986</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -27836,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27861,16 +27861,16 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>150.8055172122846</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3793744531702714</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27912,16 +27912,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>145.2633555964665</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>16.03409682145684</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34707,19 +34707,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34780,7 +34780,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34865,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K5" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>407.1525905495951</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35026,13 +35026,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,19 +35102,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>298.8178948332412</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>131.8679565343714</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35248,25 +35248,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="N9" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="O9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L9" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -35342,16 +35342,16 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>532.8920034689003</v>
       </c>
       <c r="K11" t="n">
-        <v>753.9548093211656</v>
+        <v>594.6338499105443</v>
       </c>
       <c r="L11" t="n">
         <v>173.3645347427703</v>
@@ -35427,10 +35427,10 @@
         <v>185.098767505606</v>
       </c>
       <c r="P11" t="n">
-        <v>157.977515654698</v>
+        <v>157.9775156546982</v>
       </c>
       <c r="Q11" t="n">
-        <v>511.3325514267399</v>
+        <v>670.653510837361</v>
       </c>
       <c r="R11" t="n">
         <v>239.8715154299402</v>
@@ -35491,22 +35491,22 @@
         <v>383.3702759968188</v>
       </c>
       <c r="K12" t="n">
-        <v>94.91574050612849</v>
+        <v>318.7062420685983</v>
       </c>
       <c r="L12" t="n">
         <v>127.6259264403914</v>
       </c>
       <c r="M12" t="n">
-        <v>148.933436429884</v>
+        <v>148.9334364298841</v>
       </c>
       <c r="N12" t="n">
-        <v>152.8752613269118</v>
+        <v>152.8752613269119</v>
       </c>
       <c r="O12" t="n">
-        <v>139.850997507563</v>
+        <v>139.8509975075631</v>
       </c>
       <c r="P12" t="n">
-        <v>336.0332565440226</v>
+        <v>112.2427549815525</v>
       </c>
       <c r="Q12" t="n">
         <v>75.03130922373794</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.8399860163997</v>
+        <v>122.2942134554804</v>
       </c>
       <c r="K13" t="n">
-        <v>334.7865919418453</v>
+        <v>334.7865919418452</v>
       </c>
       <c r="L13" t="n">
         <v>495.6980958496515</v>
       </c>
       <c r="M13" t="n">
-        <v>541.3715988687094</v>
+        <v>394.1533403466258</v>
       </c>
       <c r="N13" t="n">
         <v>522.1357956477359</v>
@@ -35585,10 +35585,10 @@
         <v>493.5614253355277</v>
       </c>
       <c r="P13" t="n">
-        <v>410.6173184370268</v>
+        <v>410.6173184370264</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.3917871228432</v>
+        <v>211.1558182058466</v>
       </c>
       <c r="R13" t="n">
         <v>0.9538174862894735</v>
@@ -35664,10 +35664,10 @@
         <v>185.098767505606</v>
       </c>
       <c r="P14" t="n">
-        <v>612.8675705220055</v>
+        <v>753.9548093211654</v>
       </c>
       <c r="Q14" t="n">
-        <v>670.653510837361</v>
+        <v>529.5662720382011</v>
       </c>
       <c r="R14" t="n">
         <v>239.8715154299402</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.23762291802993</v>
+        <v>46.56456550435076</v>
       </c>
       <c r="J15" t="n">
         <v>383.3702759968188</v>
@@ -35734,22 +35734,22 @@
         <v>127.6259264403914</v>
       </c>
       <c r="M15" t="n">
-        <v>148.9334364298841</v>
+        <v>148.933436429884</v>
       </c>
       <c r="N15" t="n">
-        <v>152.8752613269118</v>
+        <v>376.6657628893818</v>
       </c>
       <c r="O15" t="n">
-        <v>139.8509975075632</v>
+        <v>139.8509975075631</v>
       </c>
       <c r="P15" t="n">
         <v>112.2427549815525</v>
       </c>
       <c r="Q15" t="n">
-        <v>443.5050948819626</v>
+        <v>75.03130922373794</v>
       </c>
       <c r="R15" t="n">
-        <v>36.49475032199143</v>
+        <v>154.8510918314255</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.8399860163997</v>
+        <v>122.2942134554804</v>
       </c>
       <c r="K16" t="n">
-        <v>334.7865919418453</v>
+        <v>334.7865919418452</v>
       </c>
       <c r="L16" t="n">
         <v>495.6980958496515</v>
       </c>
       <c r="M16" t="n">
-        <v>541.3715988687094</v>
+        <v>394.1533403466258</v>
       </c>
       <c r="N16" t="n">
         <v>522.1357956477359</v>
@@ -35825,7 +35825,7 @@
         <v>410.6173184370264</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.3917871228437</v>
+        <v>211.1558182058466</v>
       </c>
       <c r="R16" t="n">
         <v>0.9538174862894735</v>
@@ -35883,7 +35883,7 @@
         <v>41.94047470242302</v>
       </c>
       <c r="J17" t="n">
-        <v>93.24080402150845</v>
+        <v>532.8920034689003</v>
       </c>
       <c r="K17" t="n">
         <v>139.7437950432372</v>
@@ -35895,19 +35895,19 @@
         <v>192.9014486710165</v>
       </c>
       <c r="N17" t="n">
-        <v>753.9548093211655</v>
+        <v>196.0227957827692</v>
       </c>
       <c r="O17" t="n">
-        <v>692.5706999516631</v>
+        <v>185.098767505606</v>
       </c>
       <c r="P17" t="n">
-        <v>157.977515654698</v>
+        <v>612.8675705220055</v>
       </c>
       <c r="Q17" t="n">
-        <v>670.6535108373614</v>
+        <v>670.653510837361</v>
       </c>
       <c r="R17" t="n">
-        <v>69.00882376018581</v>
+        <v>239.8715154299402</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.23762291802993</v>
+        <v>46.56456550435076</v>
       </c>
       <c r="J18" t="n">
         <v>383.3702759968188</v>
       </c>
       <c r="K18" t="n">
-        <v>94.91574050612849</v>
+        <v>318.7062420685983</v>
       </c>
       <c r="L18" t="n">
         <v>127.6259264403914</v>
       </c>
       <c r="M18" t="n">
-        <v>517.4072220881087</v>
+        <v>148.9334364298841</v>
       </c>
       <c r="N18" t="n">
         <v>152.8752613269119</v>
@@ -35986,7 +35986,7 @@
         <v>75.03130922373794</v>
       </c>
       <c r="R18" t="n">
-        <v>36.49475032199143</v>
+        <v>154.8510918314255</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.8399860163997</v>
+        <v>122.2942134554804</v>
       </c>
       <c r="K19" t="n">
-        <v>334.7865919418453</v>
+        <v>334.7865919418452</v>
       </c>
       <c r="L19" t="n">
         <v>495.6980958496515</v>
       </c>
       <c r="M19" t="n">
-        <v>541.3715988687094</v>
+        <v>541.3715988687095</v>
       </c>
       <c r="N19" t="n">
         <v>522.1357956477359</v>
       </c>
       <c r="O19" t="n">
-        <v>493.5614253355277</v>
+        <v>493.5614253355279</v>
       </c>
       <c r="P19" t="n">
-        <v>410.6173184370264</v>
+        <v>263.3990599149424</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.3917871228437</v>
+        <v>211.1558182058466</v>
       </c>
       <c r="R19" t="n">
         <v>0.9538174862894735</v>
@@ -36120,16 +36120,16 @@
         <v>41.94047470242302</v>
       </c>
       <c r="J20" t="n">
-        <v>93.24080402150845</v>
+        <v>532.8920034689003</v>
       </c>
       <c r="K20" t="n">
-        <v>753.9548093211654</v>
+        <v>139.7437950432372</v>
       </c>
       <c r="L20" t="n">
-        <v>173.3645347427703</v>
+        <v>173.3645347427702</v>
       </c>
       <c r="M20" t="n">
-        <v>192.9014486710166</v>
+        <v>192.9014486710165</v>
       </c>
       <c r="N20" t="n">
         <v>196.0227957827692</v>
@@ -36138,7 +36138,7 @@
         <v>185.098767505606</v>
       </c>
       <c r="P20" t="n">
-        <v>438.3077556914689</v>
+        <v>612.8675705220055</v>
       </c>
       <c r="Q20" t="n">
         <v>670.653510837361</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>46.56456550435075</v>
+        <v>46.56456550435076</v>
       </c>
       <c r="J21" t="n">
         <v>383.3702759968188</v>
       </c>
       <c r="K21" t="n">
-        <v>94.91574050612849</v>
+        <v>318.7062420685983</v>
       </c>
       <c r="L21" t="n">
         <v>127.6259264403914</v>
       </c>
       <c r="M21" t="n">
-        <v>148.933436429884</v>
+        <v>148.9334364298841</v>
       </c>
       <c r="N21" t="n">
-        <v>152.8752613269118</v>
+        <v>152.8752613269119</v>
       </c>
       <c r="O21" t="n">
-        <v>481.9978405794672</v>
+        <v>139.8509975075631</v>
       </c>
       <c r="P21" t="n">
         <v>112.2427549815525</v>
@@ -36223,7 +36223,7 @@
         <v>75.03130922373794</v>
       </c>
       <c r="R21" t="n">
-        <v>36.49475032199143</v>
+        <v>154.8510918314255</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.8399860163997</v>
+        <v>122.2942134554804</v>
       </c>
       <c r="K22" t="n">
-        <v>334.7865919418453</v>
+        <v>334.7865919418452</v>
       </c>
       <c r="L22" t="n">
         <v>495.6980958496515</v>
       </c>
       <c r="M22" t="n">
-        <v>541.3715988687094</v>
+        <v>541.3715988687095</v>
       </c>
       <c r="N22" t="n">
         <v>522.1357956477359</v>
       </c>
       <c r="O22" t="n">
-        <v>493.5614253355277</v>
+        <v>493.5614253355279</v>
       </c>
       <c r="P22" t="n">
         <v>410.6173184370264</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.3917871228437</v>
+        <v>63.93755968376263</v>
       </c>
       <c r="R22" t="n">
         <v>0.9538174862894735</v>
@@ -36360,16 +36360,16 @@
         <v>93.24080402150844</v>
       </c>
       <c r="K23" t="n">
-        <v>982.5218677282656</v>
+        <v>139.7437950432372</v>
       </c>
       <c r="L23" t="n">
-        <v>1259.283692573942</v>
+        <v>1259.283692573941</v>
       </c>
       <c r="M23" t="n">
         <v>1267.259437475714</v>
       </c>
       <c r="N23" t="n">
-        <v>842.8694298447344</v>
+        <v>1267.259437475714</v>
       </c>
       <c r="O23" t="n">
         <v>185.0987675056058</v>
@@ -36378,7 +36378,7 @@
         <v>157.9775156546984</v>
       </c>
       <c r="Q23" t="n">
-        <v>118.6345351216087</v>
+        <v>537.0226001756582</v>
       </c>
       <c r="R23" t="n">
         <v>69.00882376018581</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.23762291802994</v>
+        <v>46.56456550435075</v>
       </c>
       <c r="J24" t="n">
         <v>383.3702759968188</v>
       </c>
       <c r="K24" t="n">
-        <v>94.91574050612843</v>
+        <v>318.7062420685983</v>
       </c>
       <c r="L24" t="n">
         <v>127.6259264403914</v>
       </c>
       <c r="M24" t="n">
-        <v>148.933436429884</v>
+        <v>148.9334364298841</v>
       </c>
       <c r="N24" t="n">
         <v>152.8752613269119</v>
@@ -36457,10 +36457,10 @@
         <v>112.2427549815525</v>
       </c>
       <c r="Q24" t="n">
-        <v>443.5050948819628</v>
+        <v>75.03130922373794</v>
       </c>
       <c r="R24" t="n">
-        <v>36.49475032199143</v>
+        <v>154.8510918314255</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.83998601639971</v>
+        <v>122.2942134554804</v>
       </c>
       <c r="K25" t="n">
-        <v>334.7865919418453</v>
+        <v>334.7865919418454</v>
       </c>
       <c r="L25" t="n">
         <v>495.6980958496515</v>
       </c>
       <c r="M25" t="n">
-        <v>541.3715988687094</v>
+        <v>394.1533403466258</v>
       </c>
       <c r="N25" t="n">
         <v>522.1357956477359</v>
@@ -36533,10 +36533,10 @@
         <v>493.5614253355277</v>
       </c>
       <c r="P25" t="n">
-        <v>410.6173184370268</v>
+        <v>410.6173184370264</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.3917871228432</v>
+        <v>211.1558182058466</v>
       </c>
       <c r="R25" t="n">
         <v>0.9538174862894735</v>
@@ -36597,25 +36597,25 @@
         <v>532.8920034689003</v>
       </c>
       <c r="K26" t="n">
-        <v>139.7437950432371</v>
+        <v>982.5218677282654</v>
       </c>
       <c r="L26" t="n">
-        <v>173.3645347427702</v>
+        <v>173.3645347427703</v>
       </c>
       <c r="M26" t="n">
-        <v>1083.613761122227</v>
+        <v>192.9014486710166</v>
       </c>
       <c r="N26" t="n">
-        <v>1065.516791794989</v>
+        <v>196.022795782769</v>
       </c>
       <c r="O26" t="n">
-        <v>185.0987675056058</v>
+        <v>265.8503620381525</v>
       </c>
       <c r="P26" t="n">
-        <v>157.977515654698</v>
+        <v>994.6541569005531</v>
       </c>
       <c r="Q26" t="n">
-        <v>670.6535108373614</v>
+        <v>670.653510837361</v>
       </c>
       <c r="R26" t="n">
         <v>239.8715154299398</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.23762291802996</v>
+        <v>46.56456550435075</v>
       </c>
       <c r="J27" t="n">
-        <v>383.3702759968187</v>
+        <v>383.3702759968189</v>
       </c>
       <c r="K27" t="n">
-        <v>94.91574050612826</v>
+        <v>318.7062420685984</v>
       </c>
       <c r="L27" t="n">
-        <v>127.6259264403916</v>
+        <v>127.6259264403914</v>
       </c>
       <c r="M27" t="n">
-        <v>148.9334364298838</v>
+        <v>148.9334364298841</v>
       </c>
       <c r="N27" t="n">
-        <v>152.8752613269116</v>
+        <v>152.8752613269119</v>
       </c>
       <c r="O27" t="n">
         <v>139.8509975075631</v>
@@ -36694,10 +36694,10 @@
         <v>112.2427549815525</v>
       </c>
       <c r="Q27" t="n">
-        <v>443.5050948819639</v>
+        <v>75.03130922373794</v>
       </c>
       <c r="R27" t="n">
-        <v>36.49475032199098</v>
+        <v>154.8510918314255</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.83998601639973</v>
+        <v>122.2942134554804</v>
       </c>
       <c r="K28" t="n">
         <v>334.7865919418452</v>
       </c>
       <c r="L28" t="n">
-        <v>495.6980958496513</v>
+        <v>495.6980958496515</v>
       </c>
       <c r="M28" t="n">
         <v>541.3715988687095</v>
@@ -36767,13 +36767,13 @@
         <v>522.1357956477359</v>
       </c>
       <c r="O28" t="n">
-        <v>493.5614253355279</v>
+        <v>493.5614253355275</v>
       </c>
       <c r="P28" t="n">
         <v>410.6173184370264</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.3917871228441</v>
+        <v>63.93755968376308</v>
       </c>
       <c r="R28" t="n">
         <v>0.9538174862894735</v>
@@ -36831,31 +36831,31 @@
         <v>41.94047470242302</v>
       </c>
       <c r="J29" t="n">
-        <v>93.24080402150844</v>
+        <v>532.8920034689003</v>
       </c>
       <c r="K29" t="n">
-        <v>982.5218677282655</v>
+        <v>172.5611498096018</v>
       </c>
       <c r="L29" t="n">
+        <v>173.3645347427702</v>
+      </c>
+      <c r="M29" t="n">
         <v>1083.613761122227</v>
       </c>
-      <c r="M29" t="n">
-        <v>192.9014486710166</v>
-      </c>
       <c r="N29" t="n">
-        <v>813.7156962988606</v>
+        <v>196.0227957827692</v>
       </c>
       <c r="O29" t="n">
         <v>185.0987675056058</v>
       </c>
       <c r="P29" t="n">
-        <v>157.977515654698</v>
+        <v>994.6541569005531</v>
       </c>
       <c r="Q29" t="n">
         <v>670.653510837361</v>
       </c>
       <c r="R29" t="n">
-        <v>69.00882376018581</v>
+        <v>239.8715154299398</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.23762291802994</v>
+        <v>46.56456550435075</v>
       </c>
       <c r="J30" t="n">
-        <v>55.5335841117558</v>
+        <v>383.3702759968189</v>
       </c>
       <c r="K30" t="n">
-        <v>94.91574050612846</v>
+        <v>318.7062420685984</v>
       </c>
       <c r="L30" t="n">
         <v>127.6259264403914</v>
       </c>
       <c r="M30" t="n">
-        <v>845.2439139731719</v>
+        <v>148.9334364298841</v>
       </c>
       <c r="N30" t="n">
         <v>152.8752613269119</v>
@@ -36934,7 +36934,7 @@
         <v>75.03130922373794</v>
       </c>
       <c r="R30" t="n">
-        <v>36.49475032199143</v>
+        <v>154.8510918314255</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>34.83998601639969</v>
+        <v>122.2942134554804</v>
       </c>
       <c r="K31" t="n">
-        <v>334.7865919418454</v>
+        <v>334.7865919418452</v>
       </c>
       <c r="L31" t="n">
         <v>495.6980958496515</v>
       </c>
       <c r="M31" t="n">
-        <v>541.3715988687095</v>
+        <v>394.1533403466258</v>
       </c>
       <c r="N31" t="n">
         <v>522.1357956477359</v>
       </c>
       <c r="O31" t="n">
-        <v>493.5614253355275</v>
+        <v>493.5614253355277</v>
       </c>
       <c r="P31" t="n">
         <v>410.6173184370264</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.3917871228437</v>
+        <v>211.1558182058466</v>
       </c>
       <c r="R31" t="n">
         <v>0.9538174862894735</v>
@@ -37086,13 +37086,13 @@
         <v>185.0987675056058</v>
       </c>
       <c r="P32" t="n">
-        <v>392.1641867809017</v>
+        <v>157.977515654698</v>
       </c>
       <c r="Q32" t="n">
-        <v>118.6345351216087</v>
+        <v>181.9585145780579</v>
       </c>
       <c r="R32" t="n">
-        <v>69.00882376018581</v>
+        <v>239.8715154299398</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.23762291802996</v>
+        <v>46.56456550435075</v>
       </c>
       <c r="J33" t="n">
-        <v>383.3702759968187</v>
+        <v>383.3702759968189</v>
       </c>
       <c r="K33" t="n">
-        <v>94.91574050612826</v>
+        <v>94.91574050612849</v>
       </c>
       <c r="L33" t="n">
-        <v>127.6259264403916</v>
+        <v>127.6259264403914</v>
       </c>
       <c r="M33" t="n">
-        <v>148.9334364298838</v>
+        <v>148.9334364298841</v>
       </c>
       <c r="N33" t="n">
-        <v>152.8752613269116</v>
+        <v>152.8752613269119</v>
       </c>
       <c r="O33" t="n">
         <v>139.8509975075631</v>
@@ -37168,10 +37168,10 @@
         <v>112.2427549815525</v>
       </c>
       <c r="Q33" t="n">
-        <v>443.5050948819639</v>
+        <v>298.8218107862078</v>
       </c>
       <c r="R33" t="n">
-        <v>36.49475032199098</v>
+        <v>154.8510918314255</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>34.83998601639969</v>
+        <v>122.2942134554804</v>
       </c>
       <c r="K34" t="n">
-        <v>275.0225608588423</v>
+        <v>334.7865919418452</v>
       </c>
       <c r="L34" t="n">
         <v>495.6980958496515</v>
       </c>
       <c r="M34" t="n">
-        <v>541.3715988687094</v>
+        <v>541.3715988687095</v>
       </c>
       <c r="N34" t="n">
         <v>522.1357956477359</v>
       </c>
       <c r="O34" t="n">
-        <v>493.5614253355277</v>
+        <v>493.5614253355275</v>
       </c>
       <c r="P34" t="n">
         <v>410.6173184370264</v>
       </c>
       <c r="Q34" t="n">
-        <v>211.1558182058466</v>
+        <v>63.93755968376308</v>
       </c>
       <c r="R34" t="n">
         <v>0.9538174862894735</v>
@@ -37305,19 +37305,19 @@
         <v>41.94047470242302</v>
       </c>
       <c r="J35" t="n">
-        <v>93.24080402150845</v>
+        <v>93.24080402150844</v>
       </c>
       <c r="K35" t="n">
         <v>139.7437950432372</v>
       </c>
       <c r="L35" t="n">
-        <v>671.8020822544306</v>
+        <v>753.9548093211657</v>
       </c>
       <c r="M35" t="n">
-        <v>753.9548093211655</v>
+        <v>753.9548093211656</v>
       </c>
       <c r="N35" t="n">
-        <v>753.9548093211656</v>
+        <v>671.8020822544308</v>
       </c>
       <c r="O35" t="n">
         <v>185.0987675056058</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.23762291802993</v>
+        <v>46.56456550435075</v>
       </c>
       <c r="J36" t="n">
-        <v>55.5335841117558</v>
+        <v>383.3702759968188</v>
       </c>
       <c r="K36" t="n">
-        <v>245.0252699362085</v>
+        <v>318.7062420685983</v>
       </c>
       <c r="L36" t="n">
         <v>127.6259264403914</v>
       </c>
       <c r="M36" t="n">
-        <v>148.933436429884</v>
+        <v>148.9334364298841</v>
       </c>
       <c r="N36" t="n">
-        <v>152.8752613269118</v>
+        <v>152.8752613269119</v>
       </c>
       <c r="O36" t="n">
         <v>139.8509975075631</v>
       </c>
       <c r="P36" t="n">
-        <v>112.2427549815526</v>
+        <v>112.2427549815525</v>
       </c>
       <c r="Q36" t="n">
-        <v>621.2322573369456</v>
+        <v>75.03130922373794</v>
       </c>
       <c r="R36" t="n">
-        <v>36.49475032199143</v>
+        <v>154.8510918314255</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>34.8399860163997</v>
+        <v>122.2942134554804</v>
       </c>
       <c r="K37" t="n">
-        <v>334.7865919418453</v>
+        <v>334.7865919418452</v>
       </c>
       <c r="L37" t="n">
         <v>495.6980958496515</v>
       </c>
       <c r="M37" t="n">
-        <v>541.3715988687094</v>
+        <v>541.3715988687095</v>
       </c>
       <c r="N37" t="n">
-        <v>522.1357956477359</v>
+        <v>374.9175371256522</v>
       </c>
       <c r="O37" t="n">
         <v>493.5614253355277</v>
@@ -37484,7 +37484,7 @@
         <v>410.6173184370264</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.3917871228437</v>
+        <v>211.1558182058466</v>
       </c>
       <c r="R37" t="n">
         <v>0.9538174862894735</v>
@@ -37542,19 +37542,19 @@
         <v>41.94047470242302</v>
       </c>
       <c r="J38" t="n">
-        <v>93.24080402150845</v>
+        <v>93.24080402150844</v>
       </c>
       <c r="K38" t="n">
         <v>139.7437950432372</v>
       </c>
       <c r="L38" t="n">
-        <v>671.8020822544306</v>
+        <v>753.9548093211657</v>
       </c>
       <c r="M38" t="n">
-        <v>753.9548093211655</v>
+        <v>753.9548093211656</v>
       </c>
       <c r="N38" t="n">
-        <v>753.9548093211656</v>
+        <v>671.8020822544308</v>
       </c>
       <c r="O38" t="n">
         <v>185.0987675056058</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.23762291802993</v>
+        <v>46.56456550435075</v>
       </c>
       <c r="J39" t="n">
-        <v>55.5335841117558</v>
+        <v>383.3702759968188</v>
       </c>
       <c r="K39" t="n">
-        <v>94.91574050612846</v>
+        <v>94.91574050612849</v>
       </c>
       <c r="L39" t="n">
         <v>127.6259264403914</v>
       </c>
       <c r="M39" t="n">
-        <v>244.1643659789181</v>
+        <v>148.933436429884</v>
       </c>
       <c r="N39" t="n">
-        <v>753.9548093211655</v>
+        <v>152.8752613269118</v>
       </c>
       <c r="O39" t="n">
-        <v>139.8509975075631</v>
+        <v>139.850997507563</v>
       </c>
       <c r="P39" t="n">
         <v>112.2427549815525</v>
       </c>
       <c r="Q39" t="n">
-        <v>75.03130922373794</v>
+        <v>298.8218107862081</v>
       </c>
       <c r="R39" t="n">
-        <v>36.49475032199143</v>
+        <v>154.8510918314255</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>34.8399860163997</v>
+        <v>122.2942134554804</v>
       </c>
       <c r="K40" t="n">
-        <v>334.7865919418453</v>
+        <v>334.7865919418452</v>
       </c>
       <c r="L40" t="n">
         <v>495.6980958496515</v>
       </c>
       <c r="M40" t="n">
-        <v>541.3715988687094</v>
+        <v>541.3715988687095</v>
       </c>
       <c r="N40" t="n">
         <v>522.1357956477359</v>
       </c>
       <c r="O40" t="n">
-        <v>493.5614253355277</v>
+        <v>493.5614253355279</v>
       </c>
       <c r="P40" t="n">
-        <v>410.6173184370268</v>
+        <v>410.6173184370264</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.3917871228432</v>
+        <v>63.93755968376263</v>
       </c>
       <c r="R40" t="n">
         <v>0.9538174862894735</v>
@@ -37794,16 +37794,16 @@
         <v>196.0227957827692</v>
       </c>
       <c r="O41" t="n">
-        <v>753.9548093211656</v>
+        <v>185.0987675056058</v>
       </c>
       <c r="P41" t="n">
         <v>157.977515654698</v>
       </c>
       <c r="Q41" t="n">
-        <v>166.4968549087143</v>
+        <v>564.4902050545197</v>
       </c>
       <c r="R41" t="n">
-        <v>69.00882376018581</v>
+        <v>239.8715154299402</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.23762291802993</v>
+        <v>46.56456550435076</v>
       </c>
       <c r="J42" t="n">
-        <v>55.5335841117558</v>
+        <v>383.3702759968188</v>
       </c>
       <c r="K42" t="n">
-        <v>94.91574050612846</v>
+        <v>318.7062420685983</v>
       </c>
       <c r="L42" t="n">
         <v>127.6259264403914</v>
       </c>
       <c r="M42" t="n">
-        <v>753.9548093211653</v>
+        <v>148.9334364298841</v>
       </c>
       <c r="N42" t="n">
-        <v>244.1643659789183</v>
+        <v>152.8752613269119</v>
       </c>
       <c r="O42" t="n">
         <v>139.8509975075631</v>
@@ -37882,7 +37882,7 @@
         <v>75.03130922373794</v>
       </c>
       <c r="R42" t="n">
-        <v>36.49475032199143</v>
+        <v>154.8510918314255</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>34.8399860163997</v>
+        <v>122.2942134554804</v>
       </c>
       <c r="K43" t="n">
-        <v>275.0225608588424</v>
+        <v>187.5683334197617</v>
       </c>
       <c r="L43" t="n">
         <v>495.6980958496515</v>
@@ -38019,25 +38019,25 @@
         <v>532.8920034689003</v>
       </c>
       <c r="K44" t="n">
-        <v>753.9548093211656</v>
+        <v>139.7437950432372</v>
       </c>
       <c r="L44" t="n">
-        <v>173.3645347427703</v>
+        <v>173.3645347427702</v>
       </c>
       <c r="M44" t="n">
-        <v>192.9014486710166</v>
+        <v>192.9014486710165</v>
       </c>
       <c r="N44" t="n">
         <v>196.0227957827692</v>
       </c>
       <c r="O44" t="n">
-        <v>577.7967838107368</v>
+        <v>185.098767505606</v>
       </c>
       <c r="P44" t="n">
-        <v>157.977515654698</v>
+        <v>612.8675705220055</v>
       </c>
       <c r="Q44" t="n">
-        <v>118.6345351216091</v>
+        <v>670.653510837361</v>
       </c>
       <c r="R44" t="n">
         <v>239.8715154299402</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>46.56456550435075</v>
+        <v>46.56456550435076</v>
       </c>
       <c r="J45" t="n">
         <v>383.3702759968188</v>
@@ -38177,7 +38177,7 @@
         <v>34.8399860163997</v>
       </c>
       <c r="K46" t="n">
-        <v>275.0225608588424</v>
+        <v>334.7865919418453</v>
       </c>
       <c r="L46" t="n">
         <v>495.6980958496515</v>
@@ -38195,7 +38195,7 @@
         <v>410.6173184370264</v>
       </c>
       <c r="Q46" t="n">
-        <v>211.1558182058466</v>
+        <v>151.3917871228437</v>
       </c>
       <c r="R46" t="n">
         <v>0.9538174862894735</v>
